--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_036.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_036.xlsx
@@ -699,142 +699,142 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>18.30621269195595</v>
+        <v>94.45668307317487</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>30.13583888573788</v>
       </c>
       <c r="G2" t="n">
-        <v>47.37504090018184</v>
+        <v>87.05074921917472</v>
       </c>
       <c r="H2" t="n">
-        <v>48.56990017582292</v>
+        <v>35.37504930819813</v>
       </c>
       <c r="I2" t="n">
-        <v>42.08961092627181</v>
+        <v>62.66613692765433</v>
       </c>
       <c r="J2" t="n">
-        <v>177.9660788862705</v>
+        <v>6.51269613646053</v>
       </c>
       <c r="K2" t="n">
-        <v>101.3585433242274</v>
+        <v>30.67084836405077</v>
       </c>
       <c r="L2" t="n">
-        <v>22.96229144844531</v>
+        <v>35.09845928767731</v>
       </c>
       <c r="M2" t="n">
-        <v>14.66763777554804</v>
+        <v>4.25911279920776</v>
       </c>
       <c r="N2" t="n">
-        <v>29.86990506989099</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.22198034933528</v>
+        <v>78.71916804358324</v>
       </c>
       <c r="P2" t="n">
-        <v>73.28769806229295</v>
+        <v>55.68548237860472</v>
       </c>
       <c r="Q2" t="n">
-        <v>75.53357999686168</v>
+        <v>107.3402723845497</v>
       </c>
       <c r="R2" t="n">
-        <v>170.3863088528001</v>
+        <v>30.51985186438878</v>
       </c>
       <c r="S2" t="n">
-        <v>54.58919656665493</v>
+        <v>75.28476870309997</v>
       </c>
       <c r="T2" t="n">
-        <v>56.28246538083111</v>
+        <v>63.62844990450147</v>
       </c>
       <c r="U2" t="n">
-        <v>60.57049132307172</v>
+        <v>53.6180082751875</v>
       </c>
       <c r="V2" t="n">
-        <v>93.15053723676934</v>
+        <v>70.29203201180377</v>
       </c>
       <c r="W2" t="n">
-        <v>37.88525977159848</v>
+        <v>166.8028822950595</v>
       </c>
       <c r="X2" t="n">
-        <v>86.83488356249596</v>
+        <v>94.93520476018514</v>
       </c>
       <c r="Y2" t="n">
-        <v>59.30353161768252</v>
+        <v>237.6574953907602</v>
       </c>
       <c r="Z2" t="n">
-        <v>81.92005149106726</v>
+        <v>110.941941419533</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.2532902174591</v>
+        <v>66.01564387215127</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.77463866152524</v>
+        <v>89.29608913547958</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.2120823680919</v>
+        <v>87.05170645123042</v>
       </c>
       <c r="AD2" t="n">
-        <v>249.759884439162</v>
+        <v>16.11779316061404</v>
       </c>
       <c r="AE2" t="n">
-        <v>81.05950440645225</v>
+        <v>78.60544357979032</v>
       </c>
       <c r="AF2" t="n">
-        <v>122.4958330037614</v>
+        <v>73.09796173333955</v>
       </c>
       <c r="AG2" t="n">
-        <v>113.0918715039879</v>
+        <v>93.16922781912174</v>
       </c>
       <c r="AH2" t="n">
-        <v>56.06237775844311</v>
+        <v>34.36099294134038</v>
       </c>
       <c r="AI2" t="n">
-        <v>104.1243317864438</v>
+        <v>127.4601802444119</v>
       </c>
       <c r="AJ2" t="n">
-        <v>81.04474093764657</v>
+        <v>127.5480900920158</v>
       </c>
       <c r="AK2" t="n">
-        <v>42.26305020060691</v>
+        <v>127.545409579487</v>
       </c>
       <c r="AL2" t="n">
-        <v>32.10207375679808</v>
+        <v>90.70210965939812</v>
       </c>
       <c r="AM2" t="n">
-        <v>36.47340800707112</v>
+        <v>13.21539439184863</v>
       </c>
       <c r="AN2" t="n">
-        <v>44.24519373459655</v>
+        <v>32.94548159059811</v>
       </c>
       <c r="AO2" t="n">
-        <v>26.94668479756611</v>
+        <v>21.96369416761756</v>
       </c>
       <c r="AP2" t="n">
-        <v>24.88652736977755</v>
+        <v>17.4807206610186</v>
       </c>
       <c r="AQ2" t="n">
-        <v>46.21210824317881</v>
+        <v>26.71757599802448</v>
       </c>
       <c r="AR2" t="n">
-        <v>25.86172506575246</v>
+        <v>23.3730553802257</v>
       </c>
       <c r="AS2" t="n">
-        <v>34.81790789400442</v>
+        <v>37.7358772460389</v>
       </c>
       <c r="AT2" t="n">
-        <v>27.48892889622733</v>
+        <v>36.27095449060648</v>
       </c>
       <c r="AU2" t="n">
-        <v>30.55717427863843</v>
+        <v>16.31001212797634</v>
       </c>
       <c r="AV2" t="n">
-        <v>22.88297137399933</v>
+        <v>12.29960629877568</v>
       </c>
       <c r="AW2" t="n">
-        <v>23.11327962566322</v>
+        <v>39.33573746259339</v>
       </c>
       <c r="AX2" t="n">
-        <v>28.41726508140651</v>
+        <v>42.90317541672699</v>
       </c>
     </row>
     <row r="3">
@@ -848,145 +848,145 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>20.6979309691263</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.951696369663143</v>
+        <v>3.245126221882314</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.198666704829652</v>
+        <v>4.500871764101148</v>
       </c>
       <c r="I3" t="n">
-        <v>1.211711646400384</v>
+        <v>2.324606409283815</v>
       </c>
       <c r="J3" t="n">
-        <v>3.453145019523603</v>
+        <v>1.354735125787473</v>
       </c>
       <c r="K3" t="n">
-        <v>5.103849369640122</v>
+        <v>2.852048730754663</v>
       </c>
       <c r="L3" t="n">
-        <v>1.806973160595608</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6.052372206525504</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.828823059031084</v>
+        <v>4.645490811128552</v>
       </c>
       <c r="O3" t="n">
-        <v>2.00463603605591</v>
+        <v>7.426372460076978</v>
       </c>
       <c r="P3" t="n">
-        <v>2.424372368497669</v>
+        <v>4.105934257991687</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.235118333435804</v>
+        <v>5.514416050203659</v>
       </c>
       <c r="R3" t="n">
-        <v>3.018887526140323</v>
+        <v>5.620733954447003</v>
       </c>
       <c r="S3" t="n">
-        <v>4.017291651187384</v>
+        <v>10.9090930008455</v>
       </c>
       <c r="T3" t="n">
-        <v>3.344158246946195</v>
+        <v>5.226361215884153</v>
       </c>
       <c r="U3" t="n">
-        <v>4.52668209864785</v>
+        <v>7.41906391116066</v>
       </c>
       <c r="V3" t="n">
-        <v>7.776011860891654</v>
+        <v>3.683639683022756</v>
       </c>
       <c r="W3" t="n">
-        <v>4.118229945697201</v>
+        <v>1.924413509864389</v>
       </c>
       <c r="X3" t="n">
-        <v>5.331967655962322</v>
+        <v>4.459194268400618</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.596909234409782</v>
+        <v>0.8579277933086933</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.394508720115118</v>
+        <v>3.244953910640437</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.195813287516085</v>
+        <v>4.983500914286683</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.766144683501142</v>
+        <v>3.661875335783185</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.697508960124214</v>
+        <v>6.041745022117021</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.456995154745298</v>
+        <v>4.889333126844294</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.409245644862148</v>
+        <v>7.175285679291405</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.7952243178785</v>
+        <v>2.968098182988959</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.26116891470032</v>
+        <v>3.611436295898826</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.446285773913448</v>
+        <v>4.699178976986604</v>
       </c>
       <c r="AI3" t="n">
-        <v>4.812405413028897</v>
+        <v>5.950221985122415</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.692648936447587</v>
+        <v>2.603703794396926</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.256735506480357</v>
+        <v>7.710336269942069</v>
       </c>
       <c r="AL3" t="n">
-        <v>6.25714065422204</v>
+        <v>3.245262912784411</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.135387335391189</v>
+        <v>5.384565873356249</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.745077752308804</v>
+        <v>2.05078020374594</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.636909610900969</v>
+        <v>1.834822401471419</v>
       </c>
       <c r="AP3" t="n">
-        <v>5.845677969918917</v>
+        <v>2.925744588692029</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3.412060880220122</v>
+        <v>2.194749291637589</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.92413245332278</v>
+        <v>3.212371861161984</v>
       </c>
       <c r="AS3" t="n">
-        <v>7.518350017855344</v>
+        <v>9.303561217930691</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.297163698655358</v>
+        <v>3.929294452590669</v>
       </c>
       <c r="AU3" t="n">
-        <v>4.276989221695319</v>
+        <v>3.370465471605475</v>
       </c>
       <c r="AV3" t="n">
-        <v>2.688375071129869</v>
+        <v>4.971043286707204</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.304993406749667</v>
+        <v>3.131283321773918</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.151472995376222</v>
+        <v>5.918950562403135</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6.637691121212743</v>
+        <v>49.17328606737023</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>10.38133766049193</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>11.23737306371673</v>
+        <v>40.52686430574848</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16.9669578353245</v>
+        <v>6.988181586930512</v>
       </c>
       <c r="I4" t="n">
-        <v>56.44824147558827</v>
+        <v>37.2375665888712</v>
       </c>
       <c r="J4" t="n">
-        <v>65.61544287146063</v>
+        <v>1.300935382081819</v>
       </c>
       <c r="K4" t="n">
-        <v>145.6887187799971</v>
+        <v>69.30079853768497</v>
       </c>
       <c r="L4" t="n">
-        <v>215.4617807511122</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>68.96923848273498</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>11.63579354862935</v>
+        <v>135.7675763713186</v>
       </c>
       <c r="O4" t="n">
-        <v>63.73917458718488</v>
+        <v>95.43019050729723</v>
       </c>
       <c r="P4" t="n">
-        <v>79.76579146331376</v>
+        <v>81.83151941172002</v>
       </c>
       <c r="Q4" t="n">
-        <v>28.03748264383982</v>
+        <v>48.40890742242427</v>
       </c>
       <c r="R4" t="n">
-        <v>53.30345339880181</v>
+        <v>87.06673617009466</v>
       </c>
       <c r="S4" t="n">
-        <v>45.37028287686733</v>
+        <v>40.14466228649915</v>
       </c>
       <c r="T4" t="n">
-        <v>134.7155532353778</v>
+        <v>48.73473752374719</v>
       </c>
       <c r="U4" t="n">
-        <v>62.72257893759949</v>
+        <v>73.9717775614385</v>
       </c>
       <c r="V4" t="n">
-        <v>107.0515483087992</v>
+        <v>51.06470858355134</v>
       </c>
       <c r="W4" t="n">
-        <v>53.41376447988414</v>
+        <v>168.5776787625835</v>
       </c>
       <c r="X4" t="n">
-        <v>100.8382210238025</v>
+        <v>90.64568232530337</v>
       </c>
       <c r="Y4" t="n">
-        <v>59.78348436982532</v>
+        <v>59.1260901069832</v>
       </c>
       <c r="Z4" t="n">
-        <v>155.8291344951896</v>
+        <v>82.18198695998788</v>
       </c>
       <c r="AA4" t="n">
-        <v>49.53947494731931</v>
+        <v>68.08297731787778</v>
       </c>
       <c r="AB4" t="n">
-        <v>60.90553654916057</v>
+        <v>62.25456019418579</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.57355407841487</v>
+        <v>103.8025459618249</v>
       </c>
       <c r="AD4" t="n">
-        <v>75.95452791381156</v>
+        <v>63.04923732209707</v>
       </c>
       <c r="AE4" t="n">
-        <v>97.43045062511827</v>
+        <v>36.90822267179651</v>
       </c>
       <c r="AF4" t="n">
-        <v>92.45042373137294</v>
+        <v>31.46494863358551</v>
       </c>
       <c r="AG4" t="n">
-        <v>39.49015524709188</v>
+        <v>54.96530626685144</v>
       </c>
       <c r="AH4" t="n">
-        <v>34.98517443078731</v>
+        <v>78.31560453561875</v>
       </c>
       <c r="AI4" t="n">
-        <v>36.72477212676961</v>
+        <v>48.67960657433196</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>51.52314830627141</v>
       </c>
       <c r="AK4" t="n">
-        <v>67.54276576462952</v>
+        <v>34.59208504149299</v>
       </c>
       <c r="AL4" t="n">
-        <v>48.46971896508938</v>
+        <v>142.4326931022383</v>
       </c>
       <c r="AM4" t="n">
-        <v>38.04958003005946</v>
+        <v>27.68926903662996</v>
       </c>
       <c r="AN4" t="n">
-        <v>14.18230927200064</v>
+        <v>10.77462482813251</v>
       </c>
       <c r="AO4" t="n">
-        <v>29.28810686579514</v>
+        <v>5.412684477541438</v>
       </c>
       <c r="AP4" t="n">
-        <v>7.079130330552493</v>
+        <v>12.73638403596812</v>
       </c>
       <c r="AQ4" t="n">
-        <v>44.95067937843006</v>
+        <v>44.45978767938858</v>
       </c>
       <c r="AR4" t="n">
-        <v>20.74314821412048</v>
+        <v>7.99580542078774</v>
       </c>
       <c r="AS4" t="n">
-        <v>8.693060853629316</v>
+        <v>13.74389505817547</v>
       </c>
       <c r="AT4" t="n">
-        <v>15.8279707080759</v>
+        <v>17.26235630596414</v>
       </c>
       <c r="AU4" t="n">
-        <v>11.41579542838199</v>
+        <v>15.54926813168189</v>
       </c>
       <c r="AV4" t="n">
-        <v>14.65650574000945</v>
+        <v>30.47079437460408</v>
       </c>
       <c r="AW4" t="n">
-        <v>8.81024221999289</v>
+        <v>22.28410593721173</v>
       </c>
       <c r="AX4" t="n">
-        <v>6.595747908661178</v>
+        <v>9.831210928378699</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>21.893907039951</v>
+        <v>12.616955276141</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>35.69985225396384</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>20.19739206100971</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>81.55352925389974</v>
       </c>
       <c r="H5" t="n">
-        <v>21.71373200799361</v>
+        <v>89.8792722029643</v>
       </c>
       <c r="I5" t="n">
-        <v>31.7211867485917</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>170.1190295827826</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.96241085501854</v>
+        <v>19.61200915802506</v>
       </c>
       <c r="L5" t="n">
-        <v>57.86723436460117</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>48.59067336857102</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>66.81937543072731</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>12.7317684560469</v>
+        <v>82.84725451917272</v>
       </c>
       <c r="P5" t="n">
-        <v>131.469473748562</v>
+        <v>40.61556161535546</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>37.7877186982662</v>
       </c>
       <c r="R5" t="n">
-        <v>2.940754883746197</v>
+        <v>45.10192752407247</v>
       </c>
       <c r="S5" t="n">
-        <v>37.76613378600992</v>
+        <v>44.58096443890044</v>
       </c>
       <c r="T5" t="n">
-        <v>54.35395454182037</v>
+        <v>75.12049896829875</v>
       </c>
       <c r="U5" t="n">
-        <v>51.88103727951439</v>
+        <v>54.44568161337264</v>
       </c>
       <c r="V5" t="n">
-        <v>68.64338652231591</v>
+        <v>94.49686730758206</v>
       </c>
       <c r="W5" t="n">
-        <v>35.67488219286651</v>
+        <v>46.0835697701369</v>
       </c>
       <c r="X5" t="n">
-        <v>68.19489119163765</v>
+        <v>36.20702530275008</v>
       </c>
       <c r="Y5" t="n">
-        <v>62.64621509184579</v>
+        <v>116.8274670657383</v>
       </c>
       <c r="Z5" t="n">
-        <v>38.64734278690105</v>
+        <v>16.93068266573469</v>
       </c>
       <c r="AA5" t="n">
-        <v>71.88832649178885</v>
+        <v>40.18073451944287</v>
       </c>
       <c r="AB5" t="n">
-        <v>53.56842860400269</v>
+        <v>12.89053466245067</v>
       </c>
       <c r="AC5" t="n">
-        <v>17.38852023550503</v>
+        <v>48.90759357037906</v>
       </c>
       <c r="AD5" t="n">
-        <v>15.32616608240783</v>
+        <v>16.81222874950659</v>
       </c>
       <c r="AE5" t="n">
-        <v>42.52181503600065</v>
+        <v>20.44066364376096</v>
       </c>
       <c r="AF5" t="n">
-        <v>33.04531259860074</v>
+        <v>22.47488810857402</v>
       </c>
       <c r="AG5" t="n">
-        <v>15.78469450123914</v>
+        <v>4.871892646647916</v>
       </c>
       <c r="AH5" t="n">
-        <v>55.27365312592433</v>
+        <v>17.14637755535237</v>
       </c>
       <c r="AI5" t="n">
-        <v>26.87269760293524</v>
+        <v>11.30549525040028</v>
       </c>
       <c r="AJ5" t="n">
-        <v>101.2353593307988</v>
+        <v>9.443840914090497</v>
       </c>
       <c r="AK5" t="n">
-        <v>38.31204518001067</v>
+        <v>29.46015538443568</v>
       </c>
       <c r="AL5" t="n">
-        <v>30.49834465334002</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>26.09768036443147</v>
+        <v>17.60357949266938</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.4078205853403274</v>
+        <v>27.83671604435152</v>
       </c>
       <c r="AO5" t="n">
-        <v>24.93161560276013</v>
+        <v>24.52415477041679</v>
       </c>
       <c r="AP5" t="n">
-        <v>21.71680947265294</v>
+        <v>33.31672194067293</v>
       </c>
       <c r="AQ5" t="n">
-        <v>7.72794827315242</v>
+        <v>8.591641058381281</v>
       </c>
       <c r="AR5" t="n">
-        <v>3.232783139987584</v>
+        <v>33.63836586380959</v>
       </c>
       <c r="AS5" t="n">
-        <v>33.97720138176426</v>
+        <v>32.15788023388689</v>
       </c>
       <c r="AT5" t="n">
-        <v>6.927633579329347</v>
+        <v>4.780968734779485</v>
       </c>
       <c r="AU5" t="n">
-        <v>17.18425620150297</v>
+        <v>39.54445974410445</v>
       </c>
       <c r="AV5" t="n">
-        <v>13.35430501771935</v>
+        <v>33.80517678999099</v>
       </c>
       <c r="AW5" t="n">
-        <v>9.83996917012186</v>
+        <v>29.51804576125329</v>
       </c>
       <c r="AX5" t="n">
-        <v>17.24483001947824</v>
+        <v>14.54172066895851</v>
       </c>
     </row>
     <row r="6">
@@ -1301,13 +1301,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7.151850724006218</v>
       </c>
       <c r="D6" t="n">
-        <v>2.90549423520425</v>
+        <v>27.75885792563749</v>
       </c>
       <c r="E6" t="n">
-        <v>3.175678599693148</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1316,133 +1316,133 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>6.516858971099918</v>
+        <v>16.50006476984917</v>
       </c>
       <c r="I6" t="n">
-        <v>80.4179512653876</v>
+        <v>14.21872903413237</v>
       </c>
       <c r="J6" t="n">
-        <v>7.281443645904635</v>
+        <v>4.819184346968555</v>
       </c>
       <c r="K6" t="n">
-        <v>85.91944181313177</v>
+        <v>10.73228314610237</v>
       </c>
       <c r="L6" t="n">
-        <v>21.55631927228076</v>
+        <v>4.393357466844085</v>
       </c>
       <c r="M6" t="n">
-        <v>29.06965805620543</v>
+        <v>83.6230158937947</v>
       </c>
       <c r="N6" t="n">
-        <v>36.30623090358449</v>
+        <v>12.97363939836592</v>
       </c>
       <c r="O6" t="n">
-        <v>26.06282063037408</v>
+        <v>10.60780794625279</v>
       </c>
       <c r="P6" t="n">
-        <v>40.77509523568495</v>
+        <v>22.32699191267778</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.45567583719176</v>
+        <v>21.37732947854237</v>
       </c>
       <c r="R6" t="n">
-        <v>44.80439162227124</v>
+        <v>73.13692544675148</v>
       </c>
       <c r="S6" t="n">
-        <v>26.06168648089043</v>
+        <v>25.17740625714342</v>
       </c>
       <c r="T6" t="n">
-        <v>35.68446721322301</v>
+        <v>13.98001261719747</v>
       </c>
       <c r="U6" t="n">
-        <v>33.59687489778364</v>
+        <v>42.84235319116026</v>
       </c>
       <c r="V6" t="n">
-        <v>23.45500181159932</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>23.6569506163017</v>
+        <v>62.14452075686379</v>
       </c>
       <c r="X6" t="n">
-        <v>24.97972416985638</v>
+        <v>18.84718053541926</v>
       </c>
       <c r="Y6" t="n">
-        <v>24.13361057114458</v>
+        <v>17.80406784269463</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.99959734976437</v>
+        <v>19.1097773720683</v>
       </c>
       <c r="AA6" t="n">
-        <v>37.2348976714484</v>
+        <v>17.38509912597797</v>
       </c>
       <c r="AB6" t="n">
-        <v>4.577445400366336</v>
+        <v>2.468364451270985</v>
       </c>
       <c r="AC6" t="n">
-        <v>31.80512245089815</v>
+        <v>14.98742858507711</v>
       </c>
       <c r="AD6" t="n">
-        <v>19.58964078392646</v>
+        <v>7.143685428959905</v>
       </c>
       <c r="AE6" t="n">
-        <v>11.09697821969634</v>
+        <v>7.268011240626743</v>
       </c>
       <c r="AF6" t="n">
-        <v>31.71754516883227</v>
+        <v>7.497348426013358</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.951393960499306</v>
+        <v>6.954989843120757</v>
       </c>
       <c r="AH6" t="n">
-        <v>25.10549342135745</v>
+        <v>24.50604061717895</v>
       </c>
       <c r="AI6" t="n">
-        <v>7.22266939256427</v>
+        <v>7.371667120220728</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16.05596345969563</v>
+        <v>7.255409538966489</v>
       </c>
       <c r="AK6" t="n">
-        <v>11.12870130509347</v>
+        <v>20.0505689055469</v>
       </c>
       <c r="AL6" t="n">
-        <v>6.004069324182131</v>
+        <v>12.69090236216345</v>
       </c>
       <c r="AM6" t="n">
-        <v>3.432894815546588</v>
+        <v>1.400268505832845</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.65790836717457</v>
+        <v>3.921462466960347</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.302047384259137</v>
+        <v>1.421215009188725</v>
       </c>
       <c r="AP6" t="n">
-        <v>4.500380677430933</v>
+        <v>2.492510013137499</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.373087646780514</v>
+        <v>9.941929197356195</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.094194702177147</v>
+        <v>0.8672490064376538</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.764993889655959</v>
+        <v>3.792643458138553</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>1.198590390481116</v>
       </c>
       <c r="AU6" t="n">
-        <v>3.230532289869549</v>
+        <v>1.319924368033994</v>
       </c>
       <c r="AV6" t="n">
-        <v>4.996298309508951</v>
+        <v>4.076669386037062</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.252044715423311</v>
+        <v>2.704676461125727</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.596621646854417</v>
+        <v>4.396193080060809</v>
       </c>
     </row>
     <row r="7">
@@ -1453,13 +1453,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15.55770997224623</v>
+        <v>302.4405941703546</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2.975914699820587</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>15.69148702312086</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1468,133 +1468,133 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>25.66436783465144</v>
+        <v>4.579143821048948</v>
       </c>
       <c r="I7" t="n">
-        <v>19.83527176852738</v>
+        <v>0.042901897171159</v>
       </c>
       <c r="J7" t="n">
-        <v>92.84163101967329</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>27.1277379747156</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>69.8727251683021</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>9.148602857801732</v>
+        <v>20.81346294520328</v>
       </c>
       <c r="N7" t="n">
-        <v>112.454539452525</v>
+        <v>18.98841359195552</v>
       </c>
       <c r="O7" t="n">
-        <v>40.99698829356876</v>
+        <v>11.5410490681019</v>
       </c>
       <c r="P7" t="n">
-        <v>25.15273055776125</v>
+        <v>72.78655559726072</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.83042695102605</v>
+        <v>39.96379378568233</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>9.888302857318106</v>
       </c>
       <c r="S7" t="n">
-        <v>31.84037315671531</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>53.44198580614328</v>
+        <v>18.06600891056462</v>
       </c>
       <c r="U7" t="n">
-        <v>7.98013079072216</v>
+        <v>1.274393596291764</v>
       </c>
       <c r="V7" t="n">
-        <v>17.52918671458955</v>
+        <v>22.78014524955687</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>13.92048584297463</v>
       </c>
       <c r="X7" t="n">
-        <v>7.647634603240258</v>
+        <v>62.55176011072545</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.24344432151538</v>
+        <v>70.59415254461224</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.25098461067661</v>
+        <v>20.30788717191209</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.864488095525322</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>26.03796774545341</v>
+        <v>11.0250771500669</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.413220246298003</v>
+        <v>8.695904743976405</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.041238746256743</v>
+        <v>2.246207950432369</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.917389869078831</v>
+        <v>0.3910994262775169</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.785601995972524</v>
+        <v>5.450939205870187</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.93822676311007</v>
+        <v>28.21690837566176</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.4480176340095796</v>
+        <v>12.06275111800395</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.980888367185521</v>
+        <v>7.681996891047673</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.277258419741894</v>
+        <v>20.75965842854885</v>
       </c>
       <c r="AK7" t="n">
-        <v>7.17666128536312</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.7361756061691871</v>
+        <v>3.456333627781238</v>
       </c>
       <c r="AM7" t="n">
-        <v>21.93229333702931</v>
+        <v>21.36119532730678</v>
       </c>
       <c r="AN7" t="n">
-        <v>13.63188951192026</v>
+        <v>2.636807527047182</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>4.114846263512647</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.059699109539098</v>
+        <v>12.41612868855103</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.6881938785230398</v>
+        <v>3.1218750275348</v>
       </c>
       <c r="AR7" t="n">
-        <v>7.973393302158212</v>
+        <v>29.30039103982575</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.4276981878975703</v>
+        <v>2.902073934666724</v>
       </c>
       <c r="AT7" t="n">
-        <v>9.996717843910481</v>
+        <v>10.29354362878935</v>
       </c>
       <c r="AU7" t="n">
-        <v>10.25124100970827</v>
+        <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>8.603646876057805</v>
+        <v>15.19447722565135</v>
       </c>
       <c r="AW7" t="n">
-        <v>1.976715548914281</v>
+        <v>19.96562130993775</v>
       </c>
       <c r="AX7" t="n">
-        <v>22.00054721331021</v>
+        <v>19.30134286542728</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.4923648126443</v>
+        <v>28.41714415697403</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>75.69841983619614</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>189.0619924890931</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>30.44347369256786</v>
+        <v>172.641158412061</v>
       </c>
       <c r="H8" t="n">
-        <v>28.3793588908144</v>
+        <v>22.49686771953802</v>
       </c>
       <c r="I8" t="n">
-        <v>17.64900913057814</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>156.1177360770936</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>168.6726138495131</v>
+        <v>89.45248364487817</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>26.45812482813986</v>
       </c>
       <c r="M8" t="n">
-        <v>71.27153024307317</v>
+        <v>33.16311173707077</v>
       </c>
       <c r="N8" t="n">
-        <v>88.18935029077798</v>
+        <v>273.6426933081544</v>
       </c>
       <c r="O8" t="n">
-        <v>44.94070397552485</v>
+        <v>18.57822926040414</v>
       </c>
       <c r="P8" t="n">
-        <v>185.8313125898895</v>
+        <v>25.71479171828852</v>
       </c>
       <c r="Q8" t="n">
-        <v>33.41453358224467</v>
+        <v>65.51670450417211</v>
       </c>
       <c r="R8" t="n">
-        <v>46.73494880157359</v>
+        <v>59.76024305576659</v>
       </c>
       <c r="S8" t="n">
-        <v>23.75527929938278</v>
+        <v>69.57451060737539</v>
       </c>
       <c r="T8" t="n">
-        <v>151.8640035833131</v>
+        <v>84.64975474173397</v>
       </c>
       <c r="U8" t="n">
-        <v>28.9525370729916</v>
+        <v>50.81813367492909</v>
       </c>
       <c r="V8" t="n">
-        <v>55.9124561728484</v>
+        <v>25.82164390099485</v>
       </c>
       <c r="W8" t="n">
-        <v>103.1459948449258</v>
+        <v>49.59195570749515</v>
       </c>
       <c r="X8" t="n">
-        <v>58.66263640250252</v>
+        <v>90.52245347079908</v>
       </c>
       <c r="Y8" t="n">
-        <v>106.6853845683511</v>
+        <v>60.97797962116195</v>
       </c>
       <c r="Z8" t="n">
-        <v>75.66345717788006</v>
+        <v>66.91092568706776</v>
       </c>
       <c r="AA8" t="n">
-        <v>87.86906501488779</v>
+        <v>96.26435195008463</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.1396020774647</v>
+        <v>42.48631419796085</v>
       </c>
       <c r="AC8" t="n">
-        <v>79.30770138016963</v>
+        <v>33.8983359851802</v>
       </c>
       <c r="AD8" t="n">
-        <v>177.6965576482961</v>
+        <v>182.2977727468547</v>
       </c>
       <c r="AE8" t="n">
-        <v>130.2306045810541</v>
+        <v>96.55476446812507</v>
       </c>
       <c r="AF8" t="n">
-        <v>47.61663032793714</v>
+        <v>146.4647779522355</v>
       </c>
       <c r="AG8" t="n">
-        <v>120.3699314640224</v>
+        <v>108.4600076051422</v>
       </c>
       <c r="AH8" t="n">
-        <v>135.2883516245737</v>
+        <v>46.95652795276006</v>
       </c>
       <c r="AI8" t="n">
-        <v>41.57844786727959</v>
+        <v>39.79428310374924</v>
       </c>
       <c r="AJ8" t="n">
-        <v>106.8323305438164</v>
+        <v>85.36076179339513</v>
       </c>
       <c r="AK8" t="n">
-        <v>109.860952551963</v>
+        <v>50.60141119953564</v>
       </c>
       <c r="AL8" t="n">
-        <v>31.29054426822945</v>
+        <v>113.8421362666235</v>
       </c>
       <c r="AM8" t="n">
-        <v>113.3625967350743</v>
+        <v>17.09602303800076</v>
       </c>
       <c r="AN8" t="n">
-        <v>64.22996384344367</v>
+        <v>13.85118183654607</v>
       </c>
       <c r="AO8" t="n">
-        <v>27.02127362689114</v>
+        <v>55.29603099993202</v>
       </c>
       <c r="AP8" t="n">
-        <v>35.70231958948246</v>
+        <v>32.60798025410283</v>
       </c>
       <c r="AQ8" t="n">
-        <v>25.33650792404676</v>
+        <v>46.46985902948784</v>
       </c>
       <c r="AR8" t="n">
-        <v>30.88066141035342</v>
+        <v>22.2661758900707</v>
       </c>
       <c r="AS8" t="n">
-        <v>11.5557993578258</v>
+        <v>27.75256715633481</v>
       </c>
       <c r="AT8" t="n">
-        <v>23.50743109875606</v>
+        <v>49.47636578877706</v>
       </c>
       <c r="AU8" t="n">
-        <v>19.70880865359462</v>
+        <v>36.1403851069334</v>
       </c>
       <c r="AV8" t="n">
-        <v>10.72152125422952</v>
+        <v>14.95725465188645</v>
       </c>
       <c r="AW8" t="n">
-        <v>23.8424721145586</v>
+        <v>19.13313849698341</v>
       </c>
       <c r="AX8" t="n">
-        <v>23.83026718530564</v>
+        <v>16.73355525140384</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.505100486610664</v>
       </c>
       <c r="D9" t="n">
-        <v>2.860192661253925</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.601926572269345</v>
+        <v>2.985912714883512</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.707319826753978</v>
       </c>
       <c r="H9" t="n">
-        <v>4.021401911370655</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.121838869001687</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.036747224048499</v>
+        <v>1.047021478189802</v>
       </c>
       <c r="K9" t="n">
-        <v>7.014061708452271</v>
+        <v>3.233360088235864</v>
       </c>
       <c r="L9" t="n">
-        <v>6.535032407938048</v>
+        <v>1.316196816100621</v>
       </c>
       <c r="M9" t="n">
-        <v>5.220981994933926</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3.899207383233684</v>
+        <v>5.280653452803269</v>
       </c>
       <c r="O9" t="n">
-        <v>3.512631590902005</v>
+        <v>2.979356162226533</v>
       </c>
       <c r="P9" t="n">
-        <v>1.84257475868233</v>
+        <v>1.462302627699033</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.554892499626154</v>
+        <v>5.272894070320053</v>
       </c>
       <c r="R9" t="n">
-        <v>5.804648529210898</v>
+        <v>6.524378885248978</v>
       </c>
       <c r="S9" t="n">
-        <v>2.556593655997583</v>
+        <v>2.238687346031888</v>
       </c>
       <c r="T9" t="n">
-        <v>12.04495167823805</v>
+        <v>2.108118772164848</v>
       </c>
       <c r="U9" t="n">
-        <v>2.68002912058306</v>
+        <v>6.251298110472094</v>
       </c>
       <c r="V9" t="n">
-        <v>3.382970305262977</v>
+        <v>4.564712621792709</v>
       </c>
       <c r="W9" t="n">
-        <v>4.310388335372823</v>
+        <v>5.773321759862892</v>
       </c>
       <c r="X9" t="n">
-        <v>2.829637719566413</v>
+        <v>5.208457424232339</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.973238231014913</v>
+        <v>4.527398584420146</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.824916510210321</v>
+        <v>2.866375121597283</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.249484492519157</v>
+        <v>4.033033428326364</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.57280880621611</v>
+        <v>2.490532098422732</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.342837340854809</v>
+        <v>2.88439839530424</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.571843868079625</v>
+        <v>6.317383104215288</v>
       </c>
       <c r="AE9" t="n">
-        <v>6.0969215155001</v>
+        <v>8.499576659486275</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.711263027361129</v>
+        <v>4.142087621263388</v>
       </c>
       <c r="AG9" t="n">
-        <v>6.26971430802433</v>
+        <v>5.378290819952304</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.27053718936498</v>
+        <v>3.468948890346366</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.425350026102294</v>
+        <v>2.888128099934294</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3.546499762583452</v>
+        <v>5.558639465179771</v>
       </c>
       <c r="AK9" t="n">
-        <v>4.960762661716526</v>
+        <v>4.076919787509045</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.497155118289493</v>
+        <v>7.756931600124171</v>
       </c>
       <c r="AM9" t="n">
-        <v>10.05717312405429</v>
+        <v>2.498892259436746</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.272371863415975</v>
+        <v>2.786686575330635</v>
       </c>
       <c r="AO9" t="n">
-        <v>5.933300953519982</v>
+        <v>4.681047544914231</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.665126992949747</v>
+        <v>2.891693255006957</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.9314656455505</v>
+        <v>5.110947721393216</v>
       </c>
       <c r="AR9" t="n">
-        <v>5.585222259165298</v>
+        <v>0.01631945560735493</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.495494046474733</v>
+        <v>10.93211382778178</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.730964012695215</v>
+        <v>1.769259457979596</v>
       </c>
       <c r="AU9" t="n">
-        <v>4.322297467668261</v>
+        <v>3.405267190240805</v>
       </c>
       <c r="AV9" t="n">
-        <v>4.204959041912383</v>
+        <v>5.315123670416507</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.898402789202517</v>
+        <v>3.41084801577393</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.160028379543759</v>
+        <v>2.184042368143732</v>
       </c>
     </row>
     <row r="10">
@@ -1912,145 +1912,145 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>75.0242197977631</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4.770545590250817</v>
+        <v>70.30308419663534</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>18.8378343223976</v>
+        <v>9.87691999587503</v>
       </c>
       <c r="I10" t="n">
-        <v>168.18819369391</v>
+        <v>134.8874258518021</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>64.63070335412351</v>
       </c>
       <c r="K10" t="n">
-        <v>17.56541226659292</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>194.1663800739619</v>
+        <v>69.15431489531315</v>
       </c>
       <c r="M10" t="n">
-        <v>48.58587847513309</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>36.89808360713859</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>98.13706605057754</v>
+        <v>43.88952912961987</v>
       </c>
       <c r="P10" t="n">
-        <v>98.39570688761954</v>
+        <v>38.23053292016225</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.961700041332897</v>
+        <v>48.48982951912125</v>
       </c>
       <c r="R10" t="n">
-        <v>85.45048109354192</v>
+        <v>274.648108263254</v>
       </c>
       <c r="S10" t="n">
-        <v>40.80671284010858</v>
+        <v>28.58878344969473</v>
       </c>
       <c r="T10" t="n">
-        <v>12.23060793266828</v>
+        <v>132.5350218804627</v>
       </c>
       <c r="U10" t="n">
-        <v>45.3407901717745</v>
+        <v>65.70090290077283</v>
       </c>
       <c r="V10" t="n">
-        <v>35.99423838263906</v>
+        <v>35.27328546136401</v>
       </c>
       <c r="W10" t="n">
-        <v>89.0014581657707</v>
+        <v>39.57653801075288</v>
       </c>
       <c r="X10" t="n">
-        <v>68.37203670552502</v>
+        <v>128.2059738256646</v>
       </c>
       <c r="Y10" t="n">
-        <v>32.05251294224736</v>
+        <v>81.88033997332312</v>
       </c>
       <c r="Z10" t="n">
-        <v>82.05055440165238</v>
+        <v>89.57646681498424</v>
       </c>
       <c r="AA10" t="n">
-        <v>106.6690294956467</v>
+        <v>98.48963880095714</v>
       </c>
       <c r="AB10" t="n">
-        <v>93.20124931197154</v>
+        <v>26.25552140551661</v>
       </c>
       <c r="AC10" t="n">
-        <v>81.58720007974905</v>
+        <v>76.89359550151163</v>
       </c>
       <c r="AD10" t="n">
-        <v>116.1810376323241</v>
+        <v>58.25198533437925</v>
       </c>
       <c r="AE10" t="n">
-        <v>48.46879296683956</v>
+        <v>87.67904474525987</v>
       </c>
       <c r="AF10" t="n">
-        <v>91.65010022823677</v>
+        <v>74.28063524519051</v>
       </c>
       <c r="AG10" t="n">
-        <v>64.14855653777839</v>
+        <v>81.10716218274477</v>
       </c>
       <c r="AH10" t="n">
-        <v>38.27281919086543</v>
+        <v>47.11911592147073</v>
       </c>
       <c r="AI10" t="n">
-        <v>50.15517714346686</v>
+        <v>45.3857022889451</v>
       </c>
       <c r="AJ10" t="n">
-        <v>60.32619834987181</v>
+        <v>56.17228821628069</v>
       </c>
       <c r="AK10" t="n">
-        <v>28.58620232507733</v>
+        <v>69.59480182419465</v>
       </c>
       <c r="AL10" t="n">
-        <v>20.68036781007682</v>
+        <v>81.96786885517956</v>
       </c>
       <c r="AM10" t="n">
-        <v>24.53676109747051</v>
+        <v>7.828235652504053</v>
       </c>
       <c r="AN10" t="n">
-        <v>9.809650697594577</v>
+        <v>32.17668736056212</v>
       </c>
       <c r="AO10" t="n">
-        <v>25.65980612525617</v>
+        <v>12.80275889736045</v>
       </c>
       <c r="AP10" t="n">
-        <v>15.16581909691763</v>
+        <v>16.52743565243768</v>
       </c>
       <c r="AQ10" t="n">
-        <v>13.99456744727953</v>
+        <v>14.85448373510171</v>
       </c>
       <c r="AR10" t="n">
-        <v>14.10092000821258</v>
+        <v>8.016022212902845</v>
       </c>
       <c r="AS10" t="n">
-        <v>32.01336917065709</v>
+        <v>8.829710173257505</v>
       </c>
       <c r="AT10" t="n">
-        <v>11.50234022499071</v>
+        <v>17.1663340190096</v>
       </c>
       <c r="AU10" t="n">
-        <v>12.64428570652656</v>
+        <v>25.14668144583258</v>
       </c>
       <c r="AV10" t="n">
-        <v>8.076565793136067</v>
+        <v>19.95121953837335</v>
       </c>
       <c r="AW10" t="n">
-        <v>15.88227055089927</v>
+        <v>19.82489086140102</v>
       </c>
       <c r="AX10" t="n">
-        <v>4.522782668156306</v>
+        <v>37.49239848730276</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>27.64759033192735</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>17.69631368221062</v>
       </c>
       <c r="E11" t="n">
-        <v>14.65576031578966</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>38.68416295629101</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>13.86640743231034</v>
+        <v>78.9462889873445</v>
       </c>
       <c r="I11" t="n">
-        <v>15.94606133971687</v>
+        <v>127.5822324019005</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>18.86412356010371</v>
       </c>
       <c r="K11" t="n">
-        <v>86.05623213911836</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>168.749278149449</v>
+        <v>62.68514988576839</v>
       </c>
       <c r="N11" t="n">
-        <v>77.68184652427342</v>
+        <v>17.61358048285132</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>39.35152188525392</v>
       </c>
       <c r="P11" t="n">
-        <v>18.773953316386</v>
+        <v>14.8529097013346</v>
       </c>
       <c r="Q11" t="n">
-        <v>57.73171889488779</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.154988279521486</v>
+        <v>25.57682166845396</v>
       </c>
       <c r="S11" t="n">
-        <v>84.06801476328113</v>
+        <v>88.42828538076458</v>
       </c>
       <c r="T11" t="n">
-        <v>39.89966179387412</v>
+        <v>49.37731115501776</v>
       </c>
       <c r="U11" t="n">
-        <v>78.30074805675858</v>
+        <v>57.67504130347169</v>
       </c>
       <c r="V11" t="n">
-        <v>42.04098503767541</v>
+        <v>61.14516926544832</v>
       </c>
       <c r="W11" t="n">
-        <v>28.43553004360612</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>36.44305661118833</v>
+        <v>192.2449379844753</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.13091083350695</v>
+        <v>8.280818507413926</v>
       </c>
       <c r="Z11" t="n">
-        <v>56.7508666581322</v>
+        <v>30.77431645489333</v>
       </c>
       <c r="AA11" t="n">
-        <v>15.35111194702148</v>
+        <v>35.80499792684492</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>27.88055478235063</v>
       </c>
       <c r="AC11" t="n">
-        <v>71.80718965050174</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>5.594454337546403</v>
       </c>
       <c r="AE11" t="n">
-        <v>21.2144387965099</v>
+        <v>7.847833323461819</v>
       </c>
       <c r="AF11" t="n">
-        <v>27.33474560281977</v>
+        <v>53.24994813907712</v>
       </c>
       <c r="AG11" t="n">
-        <v>27.2556847569767</v>
+        <v>68.0967967869682</v>
       </c>
       <c r="AH11" t="n">
-        <v>34.36535401863098</v>
+        <v>69.60334546164684</v>
       </c>
       <c r="AI11" t="n">
-        <v>42.02544095610402</v>
+        <v>52.02273599513552</v>
       </c>
       <c r="AJ11" t="n">
-        <v>39.6383662250435</v>
+        <v>38.84328740082193</v>
       </c>
       <c r="AK11" t="n">
-        <v>15.2932308473584</v>
+        <v>23.02662102980001</v>
       </c>
       <c r="AL11" t="n">
-        <v>25.90176500096781</v>
+        <v>42.40998096170485</v>
       </c>
       <c r="AM11" t="n">
-        <v>28.3222305252725</v>
+        <v>11.72444391160851</v>
       </c>
       <c r="AN11" t="n">
-        <v>25.40513746042588</v>
+        <v>32.2670465906295</v>
       </c>
       <c r="AO11" t="n">
-        <v>39.93078829654742</v>
+        <v>1.127568168497283</v>
       </c>
       <c r="AP11" t="n">
-        <v>29.88021457897182</v>
+        <v>29.14597090487766</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34.28848839680754</v>
+        <v>8.095630874665174</v>
       </c>
       <c r="AR11" t="n">
-        <v>20.19000791599486</v>
+        <v>30.2941129814642</v>
       </c>
       <c r="AS11" t="n">
-        <v>31.57813879686587</v>
+        <v>30.92499587872106</v>
       </c>
       <c r="AT11" t="n">
-        <v>31.7877707082949</v>
+        <v>32.88939639841115</v>
       </c>
       <c r="AU11" t="n">
-        <v>25.17759144340737</v>
+        <v>27.53905516873246</v>
       </c>
       <c r="AV11" t="n">
-        <v>11.37141268402323</v>
+        <v>13.66480155282752</v>
       </c>
       <c r="AW11" t="n">
-        <v>25.0007804779053</v>
+        <v>19.10668255755259</v>
       </c>
       <c r="AX11" t="n">
-        <v>17.87775098876956</v>
+        <v>39.17630767227541</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>5.750872343350614</v>
+        <v>3.429925650509464</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>8.188973441532671</v>
+        <v>30.01432851610104</v>
       </c>
       <c r="F12" t="n">
-        <v>9.51649123299484</v>
+        <v>7.726883401768369</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>27.4743510012676</v>
       </c>
       <c r="H12" t="n">
-        <v>6.647692302457536</v>
+        <v>3.273600204326358</v>
       </c>
       <c r="I12" t="n">
-        <v>3.842320555261212</v>
+        <v>8.425078802968017</v>
       </c>
       <c r="J12" t="n">
-        <v>38.68943643382511</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>22.27022445526264</v>
+        <v>10.1437450681383</v>
       </c>
       <c r="L12" t="n">
-        <v>33.65905021630402</v>
+        <v>11.18093612417296</v>
       </c>
       <c r="M12" t="n">
-        <v>6.14879779204618</v>
+        <v>20.27303746484993</v>
       </c>
       <c r="N12" t="n">
-        <v>65.82781988454522</v>
+        <v>4.308462206792165</v>
       </c>
       <c r="O12" t="n">
-        <v>38.99354507136555</v>
+        <v>6.044369199254821</v>
       </c>
       <c r="P12" t="n">
-        <v>9.893462002111303</v>
+        <v>8.924985064616736</v>
       </c>
       <c r="Q12" t="n">
-        <v>17.45485640644496</v>
+        <v>22.08422321613786</v>
       </c>
       <c r="R12" t="n">
-        <v>6.127340211942187</v>
+        <v>18.2653171643668</v>
       </c>
       <c r="S12" t="n">
-        <v>5.980127703719699</v>
+        <v>10.03212261862279</v>
       </c>
       <c r="T12" t="n">
-        <v>11.31736083471605</v>
+        <v>27.65557425973735</v>
       </c>
       <c r="U12" t="n">
-        <v>12.64246107889356</v>
+        <v>10.22034534039831</v>
       </c>
       <c r="V12" t="n">
-        <v>49.07483615618064</v>
+        <v>17.88320900307017</v>
       </c>
       <c r="W12" t="n">
-        <v>23.150308741619</v>
+        <v>55.04503253544882</v>
       </c>
       <c r="X12" t="n">
-        <v>24.65673569462087</v>
+        <v>33.82839030289455</v>
       </c>
       <c r="Y12" t="n">
-        <v>32.1583788450078</v>
+        <v>35.03136553098491</v>
       </c>
       <c r="Z12" t="n">
-        <v>15.12703169545792</v>
+        <v>8.689669043451588</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.01939430926514</v>
+        <v>6.492811006045623</v>
       </c>
       <c r="AB12" t="n">
-        <v>28.37126120256347</v>
+        <v>27.83487239954625</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.04453227420656</v>
+        <v>16.17606629699182</v>
       </c>
       <c r="AD12" t="n">
-        <v>31.81331351285732</v>
+        <v>35.26907531930305</v>
       </c>
       <c r="AE12" t="n">
-        <v>13.34129604258874</v>
+        <v>9.541922808981317</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.98310253501036</v>
+        <v>28.43093512044383</v>
       </c>
       <c r="AG12" t="n">
-        <v>34.71103351600249</v>
+        <v>12.16175294830835</v>
       </c>
       <c r="AH12" t="n">
-        <v>12.3301439328996</v>
+        <v>8.203878242005208</v>
       </c>
       <c r="AI12" t="n">
-        <v>22.99026772054656</v>
+        <v>25.52641506383071</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10.53879488520673</v>
+        <v>10.11510075901968</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.353419515638522</v>
+        <v>0.5373739271048121</v>
       </c>
       <c r="AL12" t="n">
-        <v>3.907631951892374</v>
+        <v>20.71796168818031</v>
       </c>
       <c r="AM12" t="n">
-        <v>5.527091993977082</v>
+        <v>1.674263760404797</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.752638818473534</v>
+        <v>13.57650848524288</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.727565630485666</v>
+        <v>2.773470846195091</v>
       </c>
       <c r="AP12" t="n">
-        <v>6.358472700199073</v>
+        <v>1.781671531056794</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.438426283547085</v>
+        <v>1.1661021577645</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.549316640394009</v>
+        <v>3.774591763230802</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.024867896384957</v>
+        <v>3.45994506315821</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.93147988315045</v>
+        <v>4.606623478568413</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.85612243747941</v>
+        <v>2.590443302851635</v>
       </c>
       <c r="AV12" t="n">
-        <v>4.622973370774604</v>
+        <v>1.590375533075915</v>
       </c>
       <c r="AW12" t="n">
-        <v>2.837513686537913</v>
+        <v>0.7386955336994573</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.6435221482949408</v>
+        <v>2.989410891088395</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7.841264114006855</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>51.30221832491813</v>
+        <v>13.5045063197474</v>
       </c>
       <c r="F13" t="n">
-        <v>10.32944780106796</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>66.56087769811417</v>
+        <v>18.05381284285826</v>
       </c>
       <c r="H13" t="n">
-        <v>46.40016944289179</v>
+        <v>0.05076844717290285</v>
       </c>
       <c r="I13" t="n">
-        <v>1.814026472497613</v>
+        <v>19.09231655202245</v>
       </c>
       <c r="J13" t="n">
-        <v>67.78363034054398</v>
+        <v>2.951951008935737</v>
       </c>
       <c r="K13" t="n">
-        <v>4.673248533545314</v>
+        <v>25.34027724612213</v>
       </c>
       <c r="L13" t="n">
-        <v>23.17538212617852</v>
+        <v>13.66575942906412</v>
       </c>
       <c r="M13" t="n">
-        <v>64.5738703972583</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>43.29980306891049</v>
+        <v>2.254321418060682</v>
       </c>
       <c r="O13" t="n">
-        <v>131.2073616387495</v>
+        <v>65.03197154612923</v>
       </c>
       <c r="P13" t="n">
-        <v>14.00742928140964</v>
+        <v>18.00631200144918</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.14946371398981</v>
+        <v>91.16332627147465</v>
       </c>
       <c r="R13" t="n">
-        <v>31.37894761378743</v>
+        <v>14.8668191938512</v>
       </c>
       <c r="S13" t="n">
-        <v>17.9992373426078</v>
+        <v>26.88113462599856</v>
       </c>
       <c r="T13" t="n">
-        <v>18.84978811495218</v>
+        <v>78.01267277439862</v>
       </c>
       <c r="U13" t="n">
-        <v>29.338446425906</v>
+        <v>6.053214223619883</v>
       </c>
       <c r="V13" t="n">
-        <v>22.3984599035628</v>
+        <v>6.749317851964936</v>
       </c>
       <c r="W13" t="n">
-        <v>16.70293535681392</v>
+        <v>34.68058585101808</v>
       </c>
       <c r="X13" t="n">
-        <v>7.44552948479736</v>
+        <v>92.24056861213734</v>
       </c>
       <c r="Y13" t="n">
-        <v>51.97528904335167</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>10.71664756544437</v>
+        <v>24.74198315603399</v>
       </c>
       <c r="AA13" t="n">
-        <v>30.28177392861208</v>
+        <v>6.243012208395203</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.8599771000014718</v>
+        <v>4.173363734261295</v>
       </c>
       <c r="AC13" t="n">
-        <v>29.34181590382435</v>
+        <v>4.827393634881799</v>
       </c>
       <c r="AD13" t="n">
-        <v>21.28744792525983</v>
+        <v>11.83606764809979</v>
       </c>
       <c r="AE13" t="n">
-        <v>3.222570808946167</v>
+        <v>18.34018756086266</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.2697825419710514</v>
+        <v>31.91196500604839</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.548666074973088</v>
+        <v>24.68529571864649</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>6.675193386828418</v>
       </c>
       <c r="AI13" t="n">
-        <v>16.69810070185039</v>
+        <v>18.47938411845846</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5.530408103458643</v>
+        <v>17.44645008341338</v>
       </c>
       <c r="AK13" t="n">
-        <v>5.977281575888605</v>
+        <v>4.818144386453017</v>
       </c>
       <c r="AL13" t="n">
-        <v>3.353114373955964</v>
+        <v>7.141504569239051</v>
       </c>
       <c r="AM13" t="n">
-        <v>5.0871325465796</v>
+        <v>11.1114788089424</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.066071478730259</v>
+        <v>16.83215441465061</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>57.76370966375386</v>
       </c>
       <c r="AP13" t="n">
-        <v>3.096191698428184</v>
+        <v>4.001446855100712</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6.416119711502084</v>
+        <v>16.43536736727998</v>
       </c>
       <c r="AR13" t="n">
-        <v>11.62513896108693</v>
+        <v>14.56491302006433</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.291470014957285</v>
+        <v>19.72155328761125</v>
       </c>
       <c r="AT13" t="n">
-        <v>11.56864735609023</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>12.45320914142895</v>
+        <v>8.860714989154969</v>
       </c>
       <c r="AV13" t="n">
-        <v>4.208116597704406</v>
+        <v>3.824586721307704</v>
       </c>
       <c r="AW13" t="n">
-        <v>23.63007534755296</v>
+        <v>10.10917787732887</v>
       </c>
       <c r="AX13" t="n">
-        <v>15.12042290345403</v>
+        <v>9.294704059955571</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>34.1303378341191</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>13.46749615632102</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>79.45564525704171</v>
       </c>
       <c r="F14" t="n">
-        <v>25.9382182145173</v>
+        <v>39.84688524048642</v>
       </c>
       <c r="G14" t="n">
-        <v>12.53450277017372</v>
+        <v>41.71054150753521</v>
       </c>
       <c r="H14" t="n">
-        <v>21.82221125050406</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30.16838912677287</v>
+        <v>24.40585436013502</v>
       </c>
       <c r="J14" t="n">
-        <v>350.5226519163341</v>
+        <v>12.95459714009363</v>
       </c>
       <c r="K14" t="n">
-        <v>276.2770854446111</v>
+        <v>46.43774346986284</v>
       </c>
       <c r="L14" t="n">
-        <v>48.94747207510924</v>
+        <v>47.95268382223327</v>
       </c>
       <c r="M14" t="n">
-        <v>84.49504335840962</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>18.34933321733566</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>59.76881765309471</v>
+        <v>44.72353770628632</v>
       </c>
       <c r="P14" t="n">
-        <v>57.40516102713494</v>
+        <v>97.89062669246522</v>
       </c>
       <c r="Q14" t="n">
-        <v>42.09988870238788</v>
+        <v>119.9325321524559</v>
       </c>
       <c r="R14" t="n">
-        <v>93.03215346240188</v>
+        <v>35.92369413191719</v>
       </c>
       <c r="S14" t="n">
-        <v>31.68110299266775</v>
+        <v>31.09223912913174</v>
       </c>
       <c r="T14" t="n">
-        <v>74.65422155129286</v>
+        <v>71.93741189888459</v>
       </c>
       <c r="U14" t="n">
-        <v>38.24336488607985</v>
+        <v>130.8231256363421</v>
       </c>
       <c r="V14" t="n">
-        <v>70.98071299443507</v>
+        <v>41.5086012983039</v>
       </c>
       <c r="W14" t="n">
-        <v>45.33340406690604</v>
+        <v>109.867873436167</v>
       </c>
       <c r="X14" t="n">
-        <v>49.5408395305971</v>
+        <v>44.90143995332674</v>
       </c>
       <c r="Y14" t="n">
-        <v>33.65362078223001</v>
+        <v>29.61781400759448</v>
       </c>
       <c r="Z14" t="n">
-        <v>98.75719176381251</v>
+        <v>118.8519645115942</v>
       </c>
       <c r="AA14" t="n">
-        <v>67.14663850990497</v>
+        <v>73.20109272635811</v>
       </c>
       <c r="AB14" t="n">
-        <v>62.25457990270743</v>
+        <v>59.99029750240765</v>
       </c>
       <c r="AC14" t="n">
-        <v>95.42015245387032</v>
+        <v>187.3272390639928</v>
       </c>
       <c r="AD14" t="n">
-        <v>120.411498841532</v>
+        <v>84.43042148347978</v>
       </c>
       <c r="AE14" t="n">
-        <v>104.4130229366246</v>
+        <v>68.29825517918874</v>
       </c>
       <c r="AF14" t="n">
-        <v>102.6571080902557</v>
+        <v>128.1340551343718</v>
       </c>
       <c r="AG14" t="n">
-        <v>55.50182483371968</v>
+        <v>59.12049633957698</v>
       </c>
       <c r="AH14" t="n">
-        <v>159.4645997332964</v>
+        <v>130.0072436598921</v>
       </c>
       <c r="AI14" t="n">
-        <v>2.892003982045814</v>
+        <v>134.6066119770694</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17.93140691381683</v>
+        <v>69.30629090873705</v>
       </c>
       <c r="AK14" t="n">
-        <v>42.51663825097378</v>
+        <v>149.3435885269997</v>
       </c>
       <c r="AL14" t="n">
-        <v>111.058192316199</v>
+        <v>162.1478646845559</v>
       </c>
       <c r="AM14" t="n">
-        <v>15.88577141473293</v>
+        <v>25.25870337984024</v>
       </c>
       <c r="AN14" t="n">
-        <v>16.50985016667931</v>
+        <v>39.0932872740219</v>
       </c>
       <c r="AO14" t="n">
-        <v>51.030807439899</v>
+        <v>43.64486619468756</v>
       </c>
       <c r="AP14" t="n">
-        <v>22.52059331787395</v>
+        <v>31.29138751995887</v>
       </c>
       <c r="AQ14" t="n">
-        <v>49.17297595906727</v>
+        <v>19.95502444139943</v>
       </c>
       <c r="AR14" t="n">
-        <v>29.04612015561792</v>
+        <v>13.16934583480966</v>
       </c>
       <c r="AS14" t="n">
-        <v>17.21414394665668</v>
+        <v>19.51438029995757</v>
       </c>
       <c r="AT14" t="n">
-        <v>32.01133560710828</v>
+        <v>24.29014406534557</v>
       </c>
       <c r="AU14" t="n">
-        <v>11.04730530390364</v>
+        <v>71.6452731885102</v>
       </c>
       <c r="AV14" t="n">
-        <v>22.32599901904562</v>
+        <v>14.7455810628483</v>
       </c>
       <c r="AW14" t="n">
-        <v>17.77902187537588</v>
+        <v>21.85247432891083</v>
       </c>
       <c r="AX14" t="n">
-        <v>22.79787365361625</v>
+        <v>21.51573792753886</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>5.965075943129653</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4.699205683404835</v>
       </c>
       <c r="E15" t="n">
-        <v>2.972725354736045</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>6.181311370125508</v>
       </c>
       <c r="H15" t="n">
-        <v>0.847403758292462</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.809669371919879</v>
+        <v>2.186465021930608</v>
       </c>
       <c r="J15" t="n">
-        <v>3.59128555219055</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>3.290570526904911</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>11.16046625390609</v>
+        <v>2.785858780313624</v>
       </c>
       <c r="M15" t="n">
-        <v>3.250442037781325</v>
+        <v>3.684282969159049</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8983483543885238</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4.389329217576345</v>
+        <v>4.452832797943788</v>
       </c>
       <c r="P15" t="n">
-        <v>1.525308458253622</v>
+        <v>6.001331339854305</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.596653233319412</v>
+        <v>5.381370355406096</v>
       </c>
       <c r="R15" t="n">
-        <v>4.599834779093404</v>
+        <v>2.436311402281794</v>
       </c>
       <c r="S15" t="n">
-        <v>5.358251882935051</v>
+        <v>5.365758210133618</v>
       </c>
       <c r="T15" t="n">
-        <v>9.898733685150287</v>
+        <v>4.76565160045925</v>
       </c>
       <c r="U15" t="n">
-        <v>5.189085638237105</v>
+        <v>7.290745541670432</v>
       </c>
       <c r="V15" t="n">
-        <v>4.804366176253609</v>
+        <v>2.632345169443855</v>
       </c>
       <c r="W15" t="n">
-        <v>4.724157757776302</v>
+        <v>3.603590116269314</v>
       </c>
       <c r="X15" t="n">
-        <v>6.402675836314461</v>
+        <v>4.889183537249393</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.075746826957631</v>
+        <v>6.506613223830173</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.639240337999382</v>
+        <v>4.458331424981274</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.8542749940778344</v>
+        <v>4.670548704231542</v>
       </c>
       <c r="AB15" t="n">
-        <v>3.474141734712285</v>
+        <v>7.528399050822875</v>
       </c>
       <c r="AC15" t="n">
-        <v>3.138995717535191</v>
+        <v>5.235562259461781</v>
       </c>
       <c r="AD15" t="n">
-        <v>4.799855403661091</v>
+        <v>2.111505918537539</v>
       </c>
       <c r="AE15" t="n">
-        <v>2.867315809323479</v>
+        <v>0.7898730012082162</v>
       </c>
       <c r="AF15" t="n">
-        <v>6.22942296575902</v>
+        <v>4.00766469785014</v>
       </c>
       <c r="AG15" t="n">
-        <v>5.704710577656684</v>
+        <v>2.900342949806255</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.015869057737325</v>
+        <v>3.136130594650057</v>
       </c>
       <c r="AI15" t="n">
-        <v>5.274413585715683</v>
+        <v>4.432336010897347</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2.845899314328481</v>
+        <v>4.232943731436732</v>
       </c>
       <c r="AK15" t="n">
-        <v>3.26468907419462</v>
+        <v>5.092331532726722</v>
       </c>
       <c r="AL15" t="n">
-        <v>6.482903032270317</v>
+        <v>2.521008797141361</v>
       </c>
       <c r="AM15" t="n">
-        <v>2.489834212927681</v>
+        <v>3.434687924354263</v>
       </c>
       <c r="AN15" t="n">
-        <v>5.280044586489928</v>
+        <v>5.624396680223017</v>
       </c>
       <c r="AO15" t="n">
-        <v>3.685795999477157</v>
+        <v>0.3448909939915992</v>
       </c>
       <c r="AP15" t="n">
-        <v>5.934752170802767</v>
+        <v>5.555025651784232</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4.038157582956432</v>
+        <v>1.114728235258081</v>
       </c>
       <c r="AR15" t="n">
-        <v>3.654381813942678</v>
+        <v>4.28214704763332</v>
       </c>
       <c r="AS15" t="n">
-        <v>7.574317539167845</v>
+        <v>5.816517714753226</v>
       </c>
       <c r="AT15" t="n">
-        <v>7.213218258890598</v>
+        <v>4.020759830364861</v>
       </c>
       <c r="AU15" t="n">
-        <v>2.932355729415934</v>
+        <v>2.188254563130742</v>
       </c>
       <c r="AV15" t="n">
-        <v>2.985010859846589</v>
+        <v>2.617687464592914</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.057016501899609</v>
+        <v>3.475240279768087</v>
       </c>
       <c r="AX15" t="n">
-        <v>2.72209010285412</v>
+        <v>2.930036875139687</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>11.1696997479752</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>70.68345273216765</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>23.7689074686146</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>8.008991079671873</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>48.22442790926263</v>
       </c>
       <c r="H16" t="n">
-        <v>24.90239678847541</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>138.7424691186553</v>
+        <v>29.29089085776555</v>
       </c>
       <c r="K16" t="n">
-        <v>28.16574842512232</v>
+        <v>253.1955932718265</v>
       </c>
       <c r="L16" t="n">
-        <v>178.4834862957051</v>
+        <v>31.68794020510815</v>
       </c>
       <c r="M16" t="n">
-        <v>115.3593090304044</v>
+        <v>33.95578096417114</v>
       </c>
       <c r="N16" t="n">
-        <v>78.38844229226315</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>53.08907222828373</v>
+        <v>15.15725775728371</v>
       </c>
       <c r="P16" t="n">
-        <v>188.319891927199</v>
+        <v>41.7834035554337</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.86334732254594</v>
+        <v>88.77562479644924</v>
       </c>
       <c r="R16" t="n">
-        <v>72.4098401574666</v>
+        <v>55.5535286665429</v>
       </c>
       <c r="S16" t="n">
-        <v>113.1627796473783</v>
+        <v>146.2523824389835</v>
       </c>
       <c r="T16" t="n">
-        <v>57.62980204782011</v>
+        <v>184.7335314390383</v>
       </c>
       <c r="U16" t="n">
-        <v>92.25234711758566</v>
+        <v>61.46308129741016</v>
       </c>
       <c r="V16" t="n">
-        <v>150.0170850852272</v>
+        <v>54.28140246048434</v>
       </c>
       <c r="W16" t="n">
-        <v>63.19388790559006</v>
+        <v>34.78018576186955</v>
       </c>
       <c r="X16" t="n">
-        <v>52.40030094635994</v>
+        <v>73.43604614466049</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.9514840144259</v>
+        <v>51.76643150825659</v>
       </c>
       <c r="Z16" t="n">
-        <v>42.87809958337574</v>
+        <v>58.54202083421073</v>
       </c>
       <c r="AA16" t="n">
-        <v>110.2185375686453</v>
+        <v>93.85871721467176</v>
       </c>
       <c r="AB16" t="n">
-        <v>30.71899246589483</v>
+        <v>115.3892713442698</v>
       </c>
       <c r="AC16" t="n">
-        <v>92.20234196726825</v>
+        <v>31.63959221147762</v>
       </c>
       <c r="AD16" t="n">
-        <v>81.66579154250724</v>
+        <v>52.00752442479887</v>
       </c>
       <c r="AE16" t="n">
-        <v>62.71143372086605</v>
+        <v>30.86532307544494</v>
       </c>
       <c r="AF16" t="n">
-        <v>60.24968763724243</v>
+        <v>72.08823122660834</v>
       </c>
       <c r="AG16" t="n">
-        <v>53.3331271074071</v>
+        <v>54.30070756566752</v>
       </c>
       <c r="AH16" t="n">
-        <v>61.20418975923135</v>
+        <v>53.17922803351982</v>
       </c>
       <c r="AI16" t="n">
-        <v>44.62208773507391</v>
+        <v>67.90516412416136</v>
       </c>
       <c r="AJ16" t="n">
-        <v>58.40801332487063</v>
+        <v>131.4520459920503</v>
       </c>
       <c r="AK16" t="n">
-        <v>30.03439636750354</v>
+        <v>33.78746930108791</v>
       </c>
       <c r="AL16" t="n">
-        <v>44.07578243541561</v>
+        <v>46.03904735022846</v>
       </c>
       <c r="AM16" t="n">
-        <v>12.4965455237726</v>
+        <v>18.01640420900268</v>
       </c>
       <c r="AN16" t="n">
-        <v>37.25270835455436</v>
+        <v>13.20042112176924</v>
       </c>
       <c r="AO16" t="n">
-        <v>6.731253351590451</v>
+        <v>10.02409457047115</v>
       </c>
       <c r="AP16" t="n">
-        <v>15.26111182743315</v>
+        <v>9.42654669973501</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8.272835282827117</v>
+        <v>33.07868030789605</v>
       </c>
       <c r="AR16" t="n">
-        <v>12.90063754183474</v>
+        <v>27.85776096902846</v>
       </c>
       <c r="AS16" t="n">
-        <v>9.256041740273599</v>
+        <v>14.26917093032826</v>
       </c>
       <c r="AT16" t="n">
-        <v>14.72149638713585</v>
+        <v>13.88391216394573</v>
       </c>
       <c r="AU16" t="n">
-        <v>17.8023897453418</v>
+        <v>19.63423400191557</v>
       </c>
       <c r="AV16" t="n">
-        <v>12.99518401993321</v>
+        <v>32.22692449582667</v>
       </c>
       <c r="AW16" t="n">
-        <v>8.098470470992188</v>
+        <v>19.92712293628637</v>
       </c>
       <c r="AX16" t="n">
-        <v>14.15397036314901</v>
+        <v>9.131482095825996</v>
       </c>
     </row>
     <row r="17">
@@ -2973,10 +2973,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>19.26401217511626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>27.16378462404959</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2985,136 +2985,136 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>17.80292142306837</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>33.46703357026024</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.0362373265037</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>160.0967362787611</v>
+        <v>29.35574854738689</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>130.9592299443672</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>165.1080347787677</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>89.26878140436602</v>
+        <v>16.20106508522113</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>27.45732465656171</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>94.16296601893693</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.13816515157053</v>
+        <v>186.2588711854608</v>
       </c>
       <c r="R17" t="n">
-        <v>55.69923072991381</v>
+        <v>46.13260434260614</v>
       </c>
       <c r="S17" t="n">
-        <v>93.041560411517</v>
+        <v>15.45806835563807</v>
       </c>
       <c r="T17" t="n">
-        <v>44.51366098395334</v>
+        <v>54.46300055942334</v>
       </c>
       <c r="U17" t="n">
-        <v>44.42361219020238</v>
+        <v>52.86780413942554</v>
       </c>
       <c r="V17" t="n">
-        <v>50.43399827149048</v>
+        <v>13.8706191186706</v>
       </c>
       <c r="W17" t="n">
-        <v>30.6825730838929</v>
+        <v>91.98068101665537</v>
       </c>
       <c r="X17" t="n">
-        <v>33.00264511979946</v>
+        <v>21.40221879421673</v>
       </c>
       <c r="Y17" t="n">
-        <v>33.04927521247562</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.30651938187764</v>
+        <v>126.4959800788991</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.08662586022679</v>
+        <v>23.72054464815985</v>
       </c>
       <c r="AB17" t="n">
-        <v>31.24030557276707</v>
+        <v>36.16963917290697</v>
       </c>
       <c r="AC17" t="n">
-        <v>21.99954629015082</v>
+        <v>45.91669277999029</v>
       </c>
       <c r="AD17" t="n">
-        <v>29.28924760406341</v>
+        <v>97.60173994079483</v>
       </c>
       <c r="AE17" t="n">
-        <v>60.7998520233761</v>
+        <v>14.88676408967464</v>
       </c>
       <c r="AF17" t="n">
-        <v>48.51942014655519</v>
+        <v>63.83193351090019</v>
       </c>
       <c r="AG17" t="n">
-        <v>40.0202908852515</v>
+        <v>32.42566460569541</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>17.42048932122973</v>
       </c>
       <c r="AI17" t="n">
-        <v>4.254674280267287</v>
+        <v>155.2601947747821</v>
       </c>
       <c r="AJ17" t="n">
-        <v>57.18392280729596</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>38.12157405532466</v>
+        <v>75.51310858197968</v>
       </c>
       <c r="AL17" t="n">
-        <v>17.82712755748785</v>
+        <v>16.48686049006924</v>
       </c>
       <c r="AM17" t="n">
-        <v>7.095815123414994</v>
+        <v>34.25329131288684</v>
       </c>
       <c r="AN17" t="n">
-        <v>26.76638247858118</v>
+        <v>27.50765872161063</v>
       </c>
       <c r="AO17" t="n">
-        <v>25.928110630746</v>
+        <v>10.63243895198265</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.761105588082864</v>
+        <v>37.24635543847069</v>
       </c>
       <c r="AQ17" t="n">
-        <v>31.96977742167108</v>
+        <v>12.08856874814467</v>
       </c>
       <c r="AR17" t="n">
-        <v>16.07192782373333</v>
+        <v>0.8806328477001579</v>
       </c>
       <c r="AS17" t="n">
-        <v>21.24906497734066</v>
+        <v>31.39500910760837</v>
       </c>
       <c r="AT17" t="n">
-        <v>7.812206151797512</v>
+        <v>21.14010837044817</v>
       </c>
       <c r="AU17" t="n">
-        <v>21.89559077360203</v>
+        <v>16.41343034315149</v>
       </c>
       <c r="AV17" t="n">
-        <v>26.87625559499531</v>
+        <v>28.78449087498058</v>
       </c>
       <c r="AW17" t="n">
-        <v>38.07110674803357</v>
+        <v>26.24351609878878</v>
       </c>
       <c r="AX17" t="n">
-        <v>48.62326671163113</v>
+        <v>24.93427213674011</v>
       </c>
     </row>
     <row r="18">
@@ -3125,13 +3125,13 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>48.67863365564818</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>27.04111082056267</v>
       </c>
       <c r="E18" t="n">
-        <v>4.034810778108691</v>
+        <v>47.73266606252195</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -3140,133 +3140,133 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3.684333501256152</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>72.2761856871651</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>50.71487681016714</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6300085291875686</v>
+        <v>12.54985650104615</v>
       </c>
       <c r="L18" t="n">
-        <v>16.05435993297727</v>
+        <v>0.2520120062783553</v>
       </c>
       <c r="M18" t="n">
-        <v>17.93545435574604</v>
+        <v>19.9278422910406</v>
       </c>
       <c r="N18" t="n">
-        <v>42.6156042606744</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>18.69614873048899</v>
+        <v>81.91284075007937</v>
       </c>
       <c r="P18" t="n">
-        <v>79.77263479698441</v>
+        <v>35.40905999557206</v>
       </c>
       <c r="Q18" t="n">
-        <v>24.64662263855693</v>
+        <v>18.12781669309666</v>
       </c>
       <c r="R18" t="n">
-        <v>19.50218515651733</v>
+        <v>22.93738615837254</v>
       </c>
       <c r="S18" t="n">
-        <v>15.54445681913264</v>
+        <v>28.6877381446949</v>
       </c>
       <c r="T18" t="n">
-        <v>10.022752226569</v>
+        <v>22.90241371747248</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>9.304111604316574</v>
       </c>
       <c r="V18" t="n">
-        <v>15.50137205604718</v>
+        <v>28.10505004354846</v>
       </c>
       <c r="W18" t="n">
-        <v>12.96647079820313</v>
+        <v>15.7300254638785</v>
       </c>
       <c r="X18" t="n">
-        <v>36.50051566075646</v>
+        <v>19.53837181507808</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.454160751249288</v>
+        <v>25.30441432539516</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.48621718053026</v>
+        <v>23.34239770555404</v>
       </c>
       <c r="AA18" t="n">
-        <v>15.7368523782825</v>
+        <v>9.544703651769984</v>
       </c>
       <c r="AB18" t="n">
-        <v>21.71632351254941</v>
+        <v>5.817651570912687</v>
       </c>
       <c r="AC18" t="n">
-        <v>22.21671450546022</v>
+        <v>10.71218108624065</v>
       </c>
       <c r="AD18" t="n">
-        <v>4.025568383694359</v>
+        <v>12.2742996549648</v>
       </c>
       <c r="AE18" t="n">
-        <v>15.24176430403409</v>
+        <v>8.126534620006044</v>
       </c>
       <c r="AF18" t="n">
-        <v>13.26314617497492</v>
+        <v>5.682820399223036</v>
       </c>
       <c r="AG18" t="n">
-        <v>16.71941980432679</v>
+        <v>19.1862088785447</v>
       </c>
       <c r="AH18" t="n">
-        <v>18.57109086736145</v>
+        <v>12.9449575776889</v>
       </c>
       <c r="AI18" t="n">
-        <v>3.30737210810487</v>
+        <v>12.3296747848261</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17.58803881806118</v>
+        <v>13.53228918133792</v>
       </c>
       <c r="AK18" t="n">
-        <v>9.182549756747425</v>
+        <v>26.08814805026291</v>
       </c>
       <c r="AL18" t="n">
-        <v>6.219477926983441</v>
+        <v>16.17624957324952</v>
       </c>
       <c r="AM18" t="n">
-        <v>9.84776705027503</v>
+        <v>4.091046317848349</v>
       </c>
       <c r="AN18" t="n">
-        <v>6.810204299667487</v>
+        <v>2.943560641996193</v>
       </c>
       <c r="AO18" t="n">
-        <v>4.629169444147887</v>
+        <v>6.677462754758514</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.446005130718754</v>
+        <v>2.352489637213976</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3.441382237695775</v>
+        <v>0.2012471988165374</v>
       </c>
       <c r="AR18" t="n">
-        <v>2.390844656016656</v>
+        <v>4.014061227289035</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.9624280432113074</v>
+        <v>4.91456883279816</v>
       </c>
       <c r="AT18" t="n">
-        <v>4.453963506887238</v>
+        <v>3.566551986771776</v>
       </c>
       <c r="AU18" t="n">
-        <v>6.175071457714557</v>
+        <v>4.072882326535392</v>
       </c>
       <c r="AV18" t="n">
-        <v>0</v>
+        <v>2.050242307472042</v>
       </c>
       <c r="AW18" t="n">
-        <v>2.97270313376912</v>
+        <v>0.9755238897441116</v>
       </c>
       <c r="AX18" t="n">
-        <v>5.609325387083102</v>
+        <v>3.523335957900025</v>
       </c>
     </row>
     <row r="19">
@@ -3286,139 +3286,139 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>9.040409605566065</v>
+        <v>68.37011883084109</v>
       </c>
       <c r="G19" t="n">
-        <v>3.667433406850872</v>
+        <v>37.58110412777948</v>
       </c>
       <c r="H19" t="n">
-        <v>10.55520367747694</v>
+        <v>16.46471011835999</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1094075923602595</v>
+        <v>15.12338359418437</v>
       </c>
       <c r="J19" t="n">
-        <v>17.59122499773249</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.51667609591524</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>10.18927088659436</v>
+        <v>8.263741827217942</v>
       </c>
       <c r="M19" t="n">
-        <v>42.88876311182877</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>39.20183601519694</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>33.8265087681655</v>
       </c>
       <c r="P19" t="n">
-        <v>30.93763180725813</v>
+        <v>100.1083493538185</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.25789614265804</v>
+        <v>43.90636437257876</v>
       </c>
       <c r="R19" t="n">
-        <v>27.24085001764497</v>
+        <v>44.68284018545704</v>
       </c>
       <c r="S19" t="n">
-        <v>18.73885163913274</v>
+        <v>5.190330919897757</v>
       </c>
       <c r="T19" t="n">
-        <v>8.402668300849749</v>
+        <v>10.92546735731033</v>
       </c>
       <c r="U19" t="n">
-        <v>33.28015204464378</v>
+        <v>21.57280909063321</v>
       </c>
       <c r="V19" t="n">
-        <v>96.92906185433628</v>
+        <v>48.73010373033338</v>
       </c>
       <c r="W19" t="n">
-        <v>13.47096592401046</v>
+        <v>8.235803854897927</v>
       </c>
       <c r="X19" t="n">
-        <v>63.64656947104292</v>
+        <v>113.3267332503714</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.48831918207553</v>
+        <v>24.30101588852709</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>23.11881767166735</v>
       </c>
       <c r="AA19" t="n">
-        <v>38.7018510157481</v>
+        <v>18.33573893795245</v>
       </c>
       <c r="AB19" t="n">
-        <v>13.10454857151533</v>
+        <v>4.453953356166958</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>3.622685928798854</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.67855988957155</v>
+        <v>38.90019653382939</v>
       </c>
       <c r="AE19" t="n">
-        <v>6.726851804130331</v>
+        <v>6.57160830075455</v>
       </c>
       <c r="AF19" t="n">
-        <v>13.11659707816659</v>
+        <v>8.328805645164183</v>
       </c>
       <c r="AG19" t="n">
-        <v>5.015571185462091</v>
+        <v>8.487484075528883</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.608586889495271</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>1.821618785904713</v>
+        <v>13.92138094635089</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>0.6963241274265111</v>
       </c>
       <c r="AK19" t="n">
-        <v>13.72767228807632</v>
+        <v>9.682122244132549</v>
       </c>
       <c r="AL19" t="n">
-        <v>18.76946298477301</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>3.742947748023688</v>
+        <v>11.35551546565596</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.607752528269774</v>
+        <v>2.593853038609593</v>
       </c>
       <c r="AO19" t="n">
-        <v>12.17716986591535</v>
+        <v>6.747486059756282</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.745803966930686</v>
+        <v>9.226900905020495</v>
       </c>
       <c r="AQ19" t="n">
-        <v>72.65192392052887</v>
+        <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>2.000502269120366</v>
+        <v>8.723053640300773</v>
       </c>
       <c r="AS19" t="n">
-        <v>7.654418645280627</v>
+        <v>8.045007535591555</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>6.815116473883904</v>
       </c>
       <c r="AU19" t="n">
-        <v>9.732043864023302</v>
+        <v>18.32769720522896</v>
       </c>
       <c r="AV19" t="n">
-        <v>20.07579222764045</v>
+        <v>2.559578622534285</v>
       </c>
       <c r="AW19" t="n">
-        <v>0</v>
+        <v>3.644550062407276</v>
       </c>
       <c r="AX19" t="n">
-        <v>1.455522072627295</v>
+        <v>17.49936793789059</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>8.213849080370901</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>36.92823417656889</v>
+        <v>31.41089800675382</v>
       </c>
       <c r="F20" t="n">
-        <v>43.42731349192037</v>
+        <v>24.17640831006903</v>
       </c>
       <c r="G20" t="n">
-        <v>24.68663473741134</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>64.25520362541677</v>
+        <v>47.28406365058438</v>
       </c>
       <c r="I20" t="n">
-        <v>54.2235212073743</v>
+        <v>28.71312698352358</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>69.02594736031989</v>
       </c>
       <c r="K20" t="n">
-        <v>89.42353093603892</v>
+        <v>81.77614944283378</v>
       </c>
       <c r="L20" t="n">
-        <v>59.96913047444707</v>
+        <v>6.48952561286978</v>
       </c>
       <c r="M20" t="n">
-        <v>120.1715888340398</v>
+        <v>50.3723739822476</v>
       </c>
       <c r="N20" t="n">
-        <v>95.0271897586104</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>72.7154992504634</v>
+        <v>25.14715450436692</v>
       </c>
       <c r="P20" t="n">
-        <v>139.5424228848383</v>
+        <v>41.40478275168345</v>
       </c>
       <c r="Q20" t="n">
-        <v>34.74988974146186</v>
+        <v>84.77537832354366</v>
       </c>
       <c r="R20" t="n">
-        <v>80.64129727621332</v>
+        <v>129.8263865951012</v>
       </c>
       <c r="S20" t="n">
-        <v>51.19485433439631</v>
+        <v>54.27130593955278</v>
       </c>
       <c r="T20" t="n">
-        <v>84.54858793090402</v>
+        <v>45.22708594076057</v>
       </c>
       <c r="U20" t="n">
-        <v>70.78321958434523</v>
+        <v>58.96172276947788</v>
       </c>
       <c r="V20" t="n">
-        <v>82.73151980306086</v>
+        <v>46.85922315287024</v>
       </c>
       <c r="W20" t="n">
-        <v>87.65999159068947</v>
+        <v>85.77607463930546</v>
       </c>
       <c r="X20" t="n">
-        <v>66.28227695492623</v>
+        <v>81.94631971688517</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.64945298767201</v>
+        <v>117.3130124752845</v>
       </c>
       <c r="Z20" t="n">
-        <v>75.27432653809461</v>
+        <v>59.95777887019609</v>
       </c>
       <c r="AA20" t="n">
-        <v>77.47060663179984</v>
+        <v>99.9122276225909</v>
       </c>
       <c r="AB20" t="n">
-        <v>107.9889294009305</v>
+        <v>20.72036736568005</v>
       </c>
       <c r="AC20" t="n">
-        <v>62.2124978677489</v>
+        <v>80.1441651390037</v>
       </c>
       <c r="AD20" t="n">
-        <v>83.88147319072553</v>
+        <v>117.2134701671197</v>
       </c>
       <c r="AE20" t="n">
-        <v>172.4543472683897</v>
+        <v>103.2855516833511</v>
       </c>
       <c r="AF20" t="n">
-        <v>97.53891234712955</v>
+        <v>191.3545283667734</v>
       </c>
       <c r="AG20" t="n">
-        <v>88.90988252122216</v>
+        <v>78.45014521656459</v>
       </c>
       <c r="AH20" t="n">
-        <v>98.10935855184101</v>
+        <v>8.613646745642946</v>
       </c>
       <c r="AI20" t="n">
-        <v>36.03590128886305</v>
+        <v>95.842989200288</v>
       </c>
       <c r="AJ20" t="n">
-        <v>116.3595830702358</v>
+        <v>66.7661255104975</v>
       </c>
       <c r="AK20" t="n">
-        <v>38.33846924644975</v>
+        <v>109.027771533547</v>
       </c>
       <c r="AL20" t="n">
-        <v>31.82814009932855</v>
+        <v>89.56783946353552</v>
       </c>
       <c r="AM20" t="n">
-        <v>19.16592381632091</v>
+        <v>8.091346970081888</v>
       </c>
       <c r="AN20" t="n">
-        <v>14.7168928244205</v>
+        <v>25.1441255080772</v>
       </c>
       <c r="AO20" t="n">
-        <v>31.79743871550491</v>
+        <v>23.89314575104252</v>
       </c>
       <c r="AP20" t="n">
-        <v>36.05169136592861</v>
+        <v>31.98845569292835</v>
       </c>
       <c r="AQ20" t="n">
-        <v>18.59876732421182</v>
+        <v>35.19703078823339</v>
       </c>
       <c r="AR20" t="n">
-        <v>50.92227786519183</v>
+        <v>27.33933799885587</v>
       </c>
       <c r="AS20" t="n">
-        <v>33.79743869809807</v>
+        <v>27.1602665044058</v>
       </c>
       <c r="AT20" t="n">
-        <v>28.47490267512892</v>
+        <v>52.16644611480734</v>
       </c>
       <c r="AU20" t="n">
-        <v>11.24138438482801</v>
+        <v>18.76538882617881</v>
       </c>
       <c r="AV20" t="n">
-        <v>21.98010467600487</v>
+        <v>16.02500587898471</v>
       </c>
       <c r="AW20" t="n">
-        <v>26.42488734473354</v>
+        <v>16.58991239761345</v>
       </c>
       <c r="AX20" t="n">
-        <v>14.13827444818195</v>
+        <v>11.55183166991518</v>
       </c>
     </row>
     <row r="21">
@@ -3584,145 +3584,145 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2.851902597723023</v>
       </c>
       <c r="E21" t="n">
-        <v>5.837755083289124</v>
+        <v>2.035252798895619</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>5.400773133042794</v>
       </c>
       <c r="G21" t="n">
-        <v>2.673249053730605</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.385982618875324</v>
+        <v>3.294804098589326</v>
       </c>
       <c r="I21" t="n">
-        <v>1.68684261591339</v>
+        <v>6.061124036219665</v>
       </c>
       <c r="J21" t="n">
-        <v>3.319179366774552</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>7.032415719687831</v>
+        <v>1.406852489079098</v>
       </c>
       <c r="L21" t="n">
-        <v>2.742609775118418</v>
+        <v>3.103115538872065</v>
       </c>
       <c r="M21" t="n">
-        <v>2.444028097328526</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>4.980086264910812</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>4.664794879048356</v>
+        <v>3.170454686600663</v>
       </c>
       <c r="P21" t="n">
-        <v>8.639658685287262</v>
+        <v>1.501025988470651</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.239625264147428</v>
+        <v>0.9432511477417429</v>
       </c>
       <c r="R21" t="n">
-        <v>3.512614254120397</v>
+        <v>16.93376265882751</v>
       </c>
       <c r="S21" t="n">
-        <v>5.548040422160602</v>
+        <v>5.716254754427704</v>
       </c>
       <c r="T21" t="n">
-        <v>4.02915061798841</v>
+        <v>3.996064978168682</v>
       </c>
       <c r="U21" t="n">
-        <v>3.681940496371229</v>
+        <v>3.186073287478937</v>
       </c>
       <c r="V21" t="n">
-        <v>4.047702990254996</v>
+        <v>5.41799554754761</v>
       </c>
       <c r="W21" t="n">
-        <v>3.240599361200643</v>
+        <v>4.546957117606638</v>
       </c>
       <c r="X21" t="n">
-        <v>3.612612408628329</v>
+        <v>3.79068822665825</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.498212756788348</v>
+        <v>5.989005640956691</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.534867314146335</v>
+        <v>3.738133151944618</v>
       </c>
       <c r="AA21" t="n">
-        <v>7.548872983409262</v>
+        <v>6.738198203083313</v>
       </c>
       <c r="AB21" t="n">
-        <v>5.303210086031377</v>
+        <v>5.664111432642962</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.0509809236243</v>
+        <v>1.39527397122884</v>
       </c>
       <c r="AD21" t="n">
-        <v>4.167595190055749</v>
+        <v>3.957984065338238</v>
       </c>
       <c r="AE21" t="n">
-        <v>4.476281082283674</v>
+        <v>5.712052789204781</v>
       </c>
       <c r="AF21" t="n">
-        <v>5.680383541225762</v>
+        <v>3.476256492369141</v>
       </c>
       <c r="AG21" t="n">
-        <v>5.7068928550886</v>
+        <v>4.661017982291492</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.630411176519411</v>
+        <v>6.002017454609435</v>
       </c>
       <c r="AI21" t="n">
-        <v>10.74211321819218</v>
+        <v>7.438050157969786</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8.025848788579847</v>
+        <v>4.612437625304684</v>
       </c>
       <c r="AK21" t="n">
-        <v>6.218742987168559</v>
+        <v>2.484378252673152</v>
       </c>
       <c r="AL21" t="n">
-        <v>5.546075127618169</v>
+        <v>4.999626901003714</v>
       </c>
       <c r="AM21" t="n">
-        <v>4.283368349539492</v>
+        <v>9.417954974385772</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.887844698227986</v>
+        <v>5.764154553017459</v>
       </c>
       <c r="AO21" t="n">
-        <v>6.148928384225405</v>
+        <v>5.576040907250792</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.921840790463897</v>
+        <v>3.916724992693458</v>
       </c>
       <c r="AQ21" t="n">
-        <v>4.570619490101954</v>
+        <v>3.590038353123696</v>
       </c>
       <c r="AR21" t="n">
-        <v>8.20752954052395</v>
+        <v>3.704032465871484</v>
       </c>
       <c r="AS21" t="n">
-        <v>5.532975939649223</v>
+        <v>3.354344021444798</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.598978088199137</v>
+        <v>2.367127157568949</v>
       </c>
       <c r="AU21" t="n">
-        <v>3.861099474899861</v>
+        <v>1.795899669600542</v>
       </c>
       <c r="AV21" t="n">
-        <v>1.24734315529033</v>
+        <v>4.124881398344704</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.787748764210686</v>
+        <v>4.018072784714339</v>
       </c>
       <c r="AX21" t="n">
-        <v>4.175014586588298</v>
+        <v>7.223013662124995</v>
       </c>
     </row>
     <row r="22">
@@ -3739,142 +3739,142 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>73.48714431075835</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.444942603647384</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>12.92745315588108</v>
+        <v>63.506185543456</v>
       </c>
       <c r="I22" t="n">
-        <v>98.65255006843209</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.7499663205577</v>
+        <v>2.831728773015435</v>
       </c>
       <c r="K22" t="n">
-        <v>3.776857173373267</v>
+        <v>129.2284238873905</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>49.33478159073075</v>
+        <v>10.2594731232144</v>
       </c>
       <c r="N22" t="n">
-        <v>63.98690157087469</v>
+        <v>70.57521595221306</v>
       </c>
       <c r="O22" t="n">
-        <v>25.1181229871591</v>
+        <v>41.13833731060878</v>
       </c>
       <c r="P22" t="n">
-        <v>34.09518776055727</v>
+        <v>28.14191135330865</v>
       </c>
       <c r="Q22" t="n">
-        <v>121.9175040907538</v>
+        <v>56.23436140022203</v>
       </c>
       <c r="R22" t="n">
-        <v>103.6265990296825</v>
+        <v>47.24676879943922</v>
       </c>
       <c r="S22" t="n">
-        <v>77.83630698322865</v>
+        <v>44.43459573172082</v>
       </c>
       <c r="T22" t="n">
-        <v>24.17890001001876</v>
+        <v>33.75776957430291</v>
       </c>
       <c r="U22" t="n">
-        <v>68.13712144974988</v>
+        <v>19.96682572132422</v>
       </c>
       <c r="V22" t="n">
-        <v>74.07089454111181</v>
+        <v>74.02671374399117</v>
       </c>
       <c r="W22" t="n">
-        <v>70.99600935231265</v>
+        <v>49.31876207673464</v>
       </c>
       <c r="X22" t="n">
-        <v>35.11899721056187</v>
+        <v>69.0454866843647</v>
       </c>
       <c r="Y22" t="n">
-        <v>55.29607403037677</v>
+        <v>78.57260710909235</v>
       </c>
       <c r="Z22" t="n">
-        <v>33.58497228867292</v>
+        <v>53.04528033809611</v>
       </c>
       <c r="AA22" t="n">
-        <v>58.31667777121095</v>
+        <v>38.8072973527193</v>
       </c>
       <c r="AB22" t="n">
-        <v>54.87512724432412</v>
+        <v>72.11659763194021</v>
       </c>
       <c r="AC22" t="n">
-        <v>54.88032072378489</v>
+        <v>91.14512186023283</v>
       </c>
       <c r="AD22" t="n">
-        <v>50.26110833831267</v>
+        <v>60.34390384238169</v>
       </c>
       <c r="AE22" t="n">
-        <v>65.93989205296275</v>
+        <v>170.9133568484162</v>
       </c>
       <c r="AF22" t="n">
-        <v>99.55353082747784</v>
+        <v>100.8453845615892</v>
       </c>
       <c r="AG22" t="n">
-        <v>76.91591444627922</v>
+        <v>28.48359740113176</v>
       </c>
       <c r="AH22" t="n">
-        <v>60.37333796038529</v>
+        <v>123.0453324264696</v>
       </c>
       <c r="AI22" t="n">
-        <v>128.1578720117346</v>
+        <v>61.31353680244604</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22.06924804084037</v>
+        <v>45.23348186604698</v>
       </c>
       <c r="AK22" t="n">
-        <v>35.13325393318741</v>
+        <v>65.8113454383132</v>
       </c>
       <c r="AL22" t="n">
-        <v>35.7639666160937</v>
+        <v>77.11108844340873</v>
       </c>
       <c r="AM22" t="n">
-        <v>44.06359694640391</v>
+        <v>19.14605459288684</v>
       </c>
       <c r="AN22" t="n">
-        <v>21.21328814279148</v>
+        <v>19.36042581773941</v>
       </c>
       <c r="AO22" t="n">
-        <v>26.82915298123481</v>
+        <v>4.977690624905663</v>
       </c>
       <c r="AP22" t="n">
-        <v>16.21341135651462</v>
+        <v>14.10392616362449</v>
       </c>
       <c r="AQ22" t="n">
-        <v>15.13282297934463</v>
+        <v>14.26549658833702</v>
       </c>
       <c r="AR22" t="n">
-        <v>13.95324613790257</v>
+        <v>25.35797881358868</v>
       </c>
       <c r="AS22" t="n">
-        <v>16.84859391951676</v>
+        <v>14.22681268259746</v>
       </c>
       <c r="AT22" t="n">
-        <v>19.33088685232281</v>
+        <v>6.58301772299404</v>
       </c>
       <c r="AU22" t="n">
-        <v>33.38086861568747</v>
+        <v>3.317140385524613</v>
       </c>
       <c r="AV22" t="n">
-        <v>15.9080078640941</v>
+        <v>29.79874709932214</v>
       </c>
       <c r="AW22" t="n">
-        <v>13.98925049641593</v>
+        <v>39.13483908329029</v>
       </c>
       <c r="AX22" t="n">
-        <v>8.347945683732918</v>
+        <v>12.85855745339114</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>22.20402930526076</v>
+        <v>11.17168762633846</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>16.72047796890165</v>
       </c>
       <c r="E23" t="n">
-        <v>19.35431480887532</v>
+        <v>40.50256766071499</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>7.447045234581448</v>
       </c>
       <c r="G23" t="n">
-        <v>13.31660963689597</v>
+        <v>12.34149003877132</v>
       </c>
       <c r="H23" t="n">
-        <v>14.64460425108551</v>
+        <v>32.40695599352949</v>
       </c>
       <c r="I23" t="n">
-        <v>53.89336846633915</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>33.66707010892845</v>
+        <v>48.11407897031999</v>
       </c>
       <c r="K23" t="n">
-        <v>133.7396890840132</v>
+        <v>24.973963958754</v>
       </c>
       <c r="L23" t="n">
-        <v>104.9365916043244</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>48.3562574461704</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>36.38509209813649</v>
+        <v>17.69698738545869</v>
       </c>
       <c r="O23" t="n">
-        <v>39.21327033898814</v>
+        <v>81.97441461337414</v>
       </c>
       <c r="P23" t="n">
-        <v>70.32861408236961</v>
+        <v>15.75557530504775</v>
       </c>
       <c r="Q23" t="n">
-        <v>22.38661439591505</v>
+        <v>3.643019929559372</v>
       </c>
       <c r="R23" t="n">
-        <v>33.80417877814589</v>
+        <v>47.2105955870657</v>
       </c>
       <c r="S23" t="n">
-        <v>21.50187852810597</v>
+        <v>15.58008039505678</v>
       </c>
       <c r="T23" t="n">
-        <v>55.05198429850543</v>
+        <v>47.73051292596119</v>
       </c>
       <c r="U23" t="n">
-        <v>48.69268067699132</v>
+        <v>26.89822301110077</v>
       </c>
       <c r="V23" t="n">
-        <v>301.7625773153155</v>
+        <v>53.39491973153358</v>
       </c>
       <c r="W23" t="n">
-        <v>37.72872120064419</v>
+        <v>61.67418694268471</v>
       </c>
       <c r="X23" t="n">
-        <v>54.24471470524065</v>
+        <v>42.85358335373754</v>
       </c>
       <c r="Y23" t="n">
-        <v>26.38940367237648</v>
+        <v>35.42395915733456</v>
       </c>
       <c r="Z23" t="n">
-        <v>46.83441271793653</v>
+        <v>44.59683286905832</v>
       </c>
       <c r="AA23" t="n">
-        <v>33.24969421852104</v>
+        <v>37.51814054765727</v>
       </c>
       <c r="AB23" t="n">
-        <v>31.47506803657393</v>
+        <v>50.05220548781673</v>
       </c>
       <c r="AC23" t="n">
-        <v>31.0283648068451</v>
+        <v>64.35830283172703</v>
       </c>
       <c r="AD23" t="n">
-        <v>41.73527517822582</v>
+        <v>143.8570843670759</v>
       </c>
       <c r="AE23" t="n">
-        <v>164.7829817785635</v>
+        <v>119.3123882841885</v>
       </c>
       <c r="AF23" t="n">
-        <v>4.905233768351883</v>
+        <v>18.87840020022692</v>
       </c>
       <c r="AG23" t="n">
-        <v>37.33474363584193</v>
+        <v>46.27893235772286</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.602089922370881</v>
+        <v>14.42647768184166</v>
       </c>
       <c r="AI23" t="n">
-        <v>181.5007556885904</v>
+        <v>27.14729876969292</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12.03402118046844</v>
+        <v>38.60835196030943</v>
       </c>
       <c r="AK23" t="n">
-        <v>19.84954346662522</v>
+        <v>30.66475957676512</v>
       </c>
       <c r="AL23" t="n">
-        <v>37.74292065814464</v>
+        <v>25.13285573042438</v>
       </c>
       <c r="AM23" t="n">
-        <v>21.3246769017129</v>
+        <v>10.05297905616</v>
       </c>
       <c r="AN23" t="n">
-        <v>33.10096151929604</v>
+        <v>17.51246880938389</v>
       </c>
       <c r="AO23" t="n">
-        <v>33.45577414295919</v>
+        <v>30.3913532021052</v>
       </c>
       <c r="AP23" t="n">
-        <v>28.92193398026367</v>
+        <v>6.81098479630676</v>
       </c>
       <c r="AQ23" t="n">
-        <v>28.83767825997202</v>
+        <v>19.26624659548614</v>
       </c>
       <c r="AR23" t="n">
-        <v>45.84188062345299</v>
+        <v>19.95518134742754</v>
       </c>
       <c r="AS23" t="n">
-        <v>21.82226064285376</v>
+        <v>23.56647601720164</v>
       </c>
       <c r="AT23" t="n">
-        <v>32.90769825215203</v>
+        <v>20.48801004795741</v>
       </c>
       <c r="AU23" t="n">
-        <v>28.9569242153109</v>
+        <v>14.69046848876088</v>
       </c>
       <c r="AV23" t="n">
-        <v>9.756551530963625</v>
+        <v>40.36663517109096</v>
       </c>
       <c r="AW23" t="n">
-        <v>24.37141413508588</v>
+        <v>33.24533753723547</v>
       </c>
       <c r="AX23" t="n">
-        <v>17.08300047805161</v>
+        <v>0.8879418739289093</v>
       </c>
     </row>
     <row r="24">
@@ -4037,22 +4037,22 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1.115095172532892</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6136547106521568</v>
+        <v>6.425048662399501</v>
       </c>
       <c r="E24" t="n">
-        <v>7.671559541975329</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>7.738606744991216</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>10.56395277377675</v>
       </c>
       <c r="H24" t="n">
-        <v>1.466358726268858</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -4061,124 +4061,124 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>32.20821785583208</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>6.207522057591881</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>47.58465728006758</v>
+        <v>42.73317003845078</v>
       </c>
       <c r="N24" t="n">
-        <v>36.90660741649058</v>
+        <v>2.604880801807703</v>
       </c>
       <c r="O24" t="n">
-        <v>24.97348164380132</v>
+        <v>27.33298674531833</v>
       </c>
       <c r="P24" t="n">
-        <v>40.14880533433058</v>
+        <v>22.17163957223378</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.598210113262691</v>
+        <v>19.12116443104618</v>
       </c>
       <c r="R24" t="n">
-        <v>45.56572785993819</v>
+        <v>16.19325193963833</v>
       </c>
       <c r="S24" t="n">
-        <v>28.94915539621742</v>
+        <v>37.15092194986664</v>
       </c>
       <c r="T24" t="n">
-        <v>49.60773177659616</v>
+        <v>13.74612678299271</v>
       </c>
       <c r="U24" t="n">
-        <v>16.41278970762707</v>
+        <v>11.51025458452014</v>
       </c>
       <c r="V24" t="n">
-        <v>13.60613598214594</v>
+        <v>15.54691067700799</v>
       </c>
       <c r="W24" t="n">
-        <v>27.09143387601668</v>
+        <v>20.84814687362374</v>
       </c>
       <c r="X24" t="n">
-        <v>49.4611858952232</v>
+        <v>21.09363400802439</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.83809644455081</v>
+        <v>33.62005339987194</v>
       </c>
       <c r="Z24" t="n">
-        <v>37.64711964048031</v>
+        <v>33.56094326702775</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.53499789312274</v>
+        <v>4.662890819730183</v>
       </c>
       <c r="AB24" t="n">
-        <v>16.27415415108845</v>
+        <v>22.01316720979672</v>
       </c>
       <c r="AC24" t="n">
-        <v>23.60517468409122</v>
+        <v>19.56894385865714</v>
       </c>
       <c r="AD24" t="n">
-        <v>25.97559117170931</v>
+        <v>5.162415978665127</v>
       </c>
       <c r="AE24" t="n">
-        <v>12.03775566848842</v>
+        <v>11.78487123939383</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.424507899278069</v>
+        <v>10.39412211330023</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.65565839522001</v>
+        <v>23.05653062569254</v>
       </c>
       <c r="AH24" t="n">
-        <v>9.790533738996231</v>
+        <v>23.58695951119726</v>
       </c>
       <c r="AI24" t="n">
-        <v>5.524650463112049</v>
+        <v>13.8661211872424</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3.639933325360499</v>
+        <v>0.0185162687783067</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>13.50303037554639</v>
       </c>
       <c r="AL24" t="n">
-        <v>3.899233525374911</v>
+        <v>11.75005433136927</v>
       </c>
       <c r="AM24" t="n">
-        <v>2.229922400236654</v>
+        <v>4.815734697558301</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.342668265984954</v>
+        <v>0.5711412458233499</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.8683562698253028</v>
+        <v>1.586296477825226</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.9538430234961069</v>
+        <v>6.212532084422061</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.486831970244918</v>
+        <v>3.437553825599739</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.5026671341300389</v>
+        <v>6.866103170628461</v>
       </c>
       <c r="AS24" t="n">
-        <v>4.416873607452065</v>
+        <v>1.777199473257674</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.74809543209475</v>
+        <v>0.5786939866677534</v>
       </c>
       <c r="AU24" t="n">
-        <v>3.057034395130134</v>
+        <v>1.278816465258421</v>
       </c>
       <c r="AV24" t="n">
-        <v>1.261227352408074</v>
+        <v>1.998999588413548</v>
       </c>
       <c r="AW24" t="n">
-        <v>5.880008429967323</v>
+        <v>2.40069411476009</v>
       </c>
       <c r="AX24" t="n">
-        <v>2.222131545744101</v>
+        <v>0.6094273605195004</v>
       </c>
     </row>
     <row r="25">
@@ -4189,13 +4189,13 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>36.11297889447746</v>
+        <v>128.0497379587402</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>20.22819743384147</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2.316472886292524</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -4204,133 +4204,133 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.4137730492306124</v>
       </c>
       <c r="I25" t="n">
-        <v>32.57491453971535</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>8.461500902342319</v>
+        <v>13.66882287547477</v>
       </c>
       <c r="K25" t="n">
-        <v>6.506848950502038</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>31.95600357160476</v>
+        <v>69.99574043679969</v>
       </c>
       <c r="M25" t="n">
-        <v>15.10132091614448</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>24.3698933735286</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>67.42278171686374</v>
       </c>
       <c r="P25" t="n">
-        <v>13.31876768349936</v>
+        <v>46.50275410255544</v>
       </c>
       <c r="Q25" t="n">
-        <v>115.4203018035237</v>
+        <v>91.67343610863784</v>
       </c>
       <c r="R25" t="n">
-        <v>1.946268037299431</v>
+        <v>18.9655353492685</v>
       </c>
       <c r="S25" t="n">
-        <v>39.34521801830221</v>
+        <v>45.61441597912743</v>
       </c>
       <c r="T25" t="n">
-        <v>42.26836012698847</v>
+        <v>17.91791642582101</v>
       </c>
       <c r="U25" t="n">
-        <v>19.0866683469847</v>
+        <v>33.89421726500974</v>
       </c>
       <c r="V25" t="n">
-        <v>36.39983305142781</v>
+        <v>31.47781513856003</v>
       </c>
       <c r="W25" t="n">
-        <v>38.84721462240719</v>
+        <v>15.44289207145409</v>
       </c>
       <c r="X25" t="n">
-        <v>12.45776748724374</v>
+        <v>17.32277289753292</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.569070286881691</v>
+        <v>36.1859714718977</v>
       </c>
       <c r="Z25" t="n">
-        <v>49.66164473724645</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>42.38585407625735</v>
+        <v>22.15623487857164</v>
       </c>
       <c r="AB25" t="n">
-        <v>2.709518540014131</v>
+        <v>10.1816263995978</v>
       </c>
       <c r="AC25" t="n">
-        <v>5.762068535800036</v>
+        <v>5.231681016957805</v>
       </c>
       <c r="AD25" t="n">
-        <v>13.51856374765526</v>
+        <v>8.953524724359038</v>
       </c>
       <c r="AE25" t="n">
-        <v>4.048011512014163</v>
+        <v>16.49089068563403</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.850132350525393</v>
+        <v>13.45042036566995</v>
       </c>
       <c r="AG25" t="n">
-        <v>8.375554741306878</v>
+        <v>37.86280037183946</v>
       </c>
       <c r="AH25" t="n">
-        <v>46.84070196927239</v>
+        <v>10.15067591930132</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>5.276275093815032</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.831772771033251</v>
+        <v>6.540397254530697</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>20.71358194296782</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.865364460758788</v>
+        <v>33.2301857864007</v>
       </c>
       <c r="AM25" t="n">
-        <v>4.511654746052407</v>
+        <v>5.564774045191582</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>2.871753740488095</v>
       </c>
       <c r="AO25" t="n">
-        <v>9.107922593341724</v>
+        <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>6.795160633930682</v>
+        <v>0.531554225633867</v>
       </c>
       <c r="AQ25" t="n">
-        <v>4.068513261026286</v>
+        <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>7.486343747140022</v>
       </c>
       <c r="AS25" t="n">
-        <v>5.753061685063921</v>
+        <v>3.335119840777105</v>
       </c>
       <c r="AT25" t="n">
-        <v>0</v>
+        <v>4.218130531988316</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>9.871315483209791</v>
+        <v>13.83929988575543</v>
       </c>
       <c r="AW25" t="n">
-        <v>11.27201679804022</v>
+        <v>6.128529968528023</v>
       </c>
       <c r="AX25" t="n">
-        <v>6.294967822860709</v>
+        <v>12.45086080301183</v>
       </c>
     </row>
     <row r="26">
@@ -4341,7 +4341,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>21.02042719614477</v>
+        <v>19.59631923310997</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4350,139 +4350,139 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>53.85734065060552</v>
       </c>
       <c r="G26" t="n">
-        <v>34.38186080209598</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>18.10602162755438</v>
+        <v>87.04646237776029</v>
       </c>
       <c r="I26" t="n">
-        <v>44.53671131793476</v>
+        <v>9.99548686759552</v>
       </c>
       <c r="J26" t="n">
-        <v>56.22025938732283</v>
+        <v>21.43018418730204</v>
       </c>
       <c r="K26" t="n">
-        <v>42.35115270173524</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>66.40783520084337</v>
+        <v>147.5178700941467</v>
       </c>
       <c r="M26" t="n">
-        <v>44.35104990961199</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>103.7916008357643</v>
+        <v>38.34864373057174</v>
       </c>
       <c r="O26" t="n">
-        <v>43.34577057696318</v>
+        <v>37.92556767522775</v>
       </c>
       <c r="P26" t="n">
-        <v>72.65880258770675</v>
+        <v>45.8902004533871</v>
       </c>
       <c r="Q26" t="n">
-        <v>60.20973736171106</v>
+        <v>51.82564966644932</v>
       </c>
       <c r="R26" t="n">
-        <v>78.36833218069954</v>
+        <v>27.93576932682766</v>
       </c>
       <c r="S26" t="n">
-        <v>52.3050322046662</v>
+        <v>119.6401696354508</v>
       </c>
       <c r="T26" t="n">
-        <v>51.27487534584009</v>
+        <v>40.99706867301414</v>
       </c>
       <c r="U26" t="n">
-        <v>55.24091549241886</v>
+        <v>49.18087034048639</v>
       </c>
       <c r="V26" t="n">
-        <v>102.3600002863589</v>
+        <v>61.52056813466254</v>
       </c>
       <c r="W26" t="n">
-        <v>47.28079544132858</v>
+        <v>40.41875458449866</v>
       </c>
       <c r="X26" t="n">
-        <v>56.90430080960341</v>
+        <v>59.61582248869942</v>
       </c>
       <c r="Y26" t="n">
-        <v>103.6103378485467</v>
+        <v>91.38311556496761</v>
       </c>
       <c r="Z26" t="n">
-        <v>50.28301184871879</v>
+        <v>19.35319960789899</v>
       </c>
       <c r="AA26" t="n">
-        <v>87.00713745072647</v>
+        <v>119.9325255297118</v>
       </c>
       <c r="AB26" t="n">
-        <v>149.407448132064</v>
+        <v>34.62269659535612</v>
       </c>
       <c r="AC26" t="n">
-        <v>125.9183417053698</v>
+        <v>69.36214618615679</v>
       </c>
       <c r="AD26" t="n">
-        <v>244.045757447102</v>
+        <v>88.63936573597975</v>
       </c>
       <c r="AE26" t="n">
-        <v>91.63203577760169</v>
+        <v>61.68120592871719</v>
       </c>
       <c r="AF26" t="n">
-        <v>86.91466405073784</v>
+        <v>117.1368931612428</v>
       </c>
       <c r="AG26" t="n">
-        <v>69.02859316387742</v>
+        <v>54.60415491795315</v>
       </c>
       <c r="AH26" t="n">
-        <v>33.53954799755695</v>
+        <v>44.93496830537283</v>
       </c>
       <c r="AI26" t="n">
-        <v>49.21776033910191</v>
+        <v>57.50400843392404</v>
       </c>
       <c r="AJ26" t="n">
-        <v>110.2877572598259</v>
+        <v>105.9168864804609</v>
       </c>
       <c r="AK26" t="n">
-        <v>84.13394755957253</v>
+        <v>62.82544241852982</v>
       </c>
       <c r="AL26" t="n">
-        <v>86.64775768309603</v>
+        <v>75.34984648880413</v>
       </c>
       <c r="AM26" t="n">
-        <v>61.15668558994035</v>
+        <v>16.32418311274906</v>
       </c>
       <c r="AN26" t="n">
-        <v>37.84206354232208</v>
+        <v>13.61705447332772</v>
       </c>
       <c r="AO26" t="n">
-        <v>22.78967556758391</v>
+        <v>24.54181397606099</v>
       </c>
       <c r="AP26" t="n">
-        <v>37.14679746370741</v>
+        <v>79.29444468038162</v>
       </c>
       <c r="AQ26" t="n">
-        <v>38.12715283917268</v>
+        <v>27.84336054392933</v>
       </c>
       <c r="AR26" t="n">
-        <v>24.70061087136312</v>
+        <v>43.33667687893871</v>
       </c>
       <c r="AS26" t="n">
-        <v>30.39296190913045</v>
+        <v>33.41034069280559</v>
       </c>
       <c r="AT26" t="n">
-        <v>82.46803163403233</v>
+        <v>20.67732026258051</v>
       </c>
       <c r="AU26" t="n">
-        <v>16.65474458590079</v>
+        <v>18.6424241083832</v>
       </c>
       <c r="AV26" t="n">
-        <v>11.46080919930963</v>
+        <v>27.33647843895064</v>
       </c>
       <c r="AW26" t="n">
-        <v>29.46554303604801</v>
+        <v>27.11343357382231</v>
       </c>
       <c r="AX26" t="n">
-        <v>13.00137937747411</v>
+        <v>11.16398316334587</v>
       </c>
     </row>
     <row r="27">
@@ -4499,142 +4499,142 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>5.315497323468548</v>
+        <v>2.933589433826088</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.6669777258546312</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>2.040252850338878</v>
+        <v>3.464689851810702</v>
       </c>
       <c r="I27" t="n">
-        <v>3.20570517607289</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.943325671957036</v>
+        <v>7.851161965264081</v>
       </c>
       <c r="K27" t="n">
-        <v>8.290737933725293</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1.308873160364469</v>
+        <v>5.408356816361747</v>
       </c>
       <c r="M27" t="n">
-        <v>3.055269742218553</v>
+        <v>4.702447732799731</v>
       </c>
       <c r="N27" t="n">
-        <v>1.683700545946337</v>
+        <v>2.557651028058181</v>
       </c>
       <c r="O27" t="n">
-        <v>9.35511076267974</v>
+        <v>5.045191270203611</v>
       </c>
       <c r="P27" t="n">
-        <v>2.453613167948205</v>
+        <v>11.54926602991913</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.418514983245176</v>
+        <v>2.61621694598464</v>
       </c>
       <c r="R27" t="n">
-        <v>2.621297929537624</v>
+        <v>2.469923406680671</v>
       </c>
       <c r="S27" t="n">
-        <v>2.163181118133852</v>
+        <v>5.661309063456373</v>
       </c>
       <c r="T27" t="n">
-        <v>3.714207519926075</v>
+        <v>4.169109794619408</v>
       </c>
       <c r="U27" t="n">
-        <v>1.36704503258101</v>
+        <v>2.004092620789867</v>
       </c>
       <c r="V27" t="n">
-        <v>3.457587214319608</v>
+        <v>1.613813524808157</v>
       </c>
       <c r="W27" t="n">
-        <v>2.071119422927977</v>
+        <v>4.170709269304998</v>
       </c>
       <c r="X27" t="n">
-        <v>6.915437231958653</v>
+        <v>3.354363648275395</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.124660323650573</v>
+        <v>1.722957647309852</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.879821050650936</v>
+        <v>5.331374967527156</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.806375473851887</v>
+        <v>2.142959232207992</v>
       </c>
       <c r="AB27" t="n">
-        <v>4.748676394545777</v>
+        <v>9.9377451360591</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.447168165994287</v>
+        <v>5.34908156016523</v>
       </c>
       <c r="AD27" t="n">
-        <v>4.347208055824943</v>
+        <v>4.508263689719012</v>
       </c>
       <c r="AE27" t="n">
-        <v>8.976556082931662</v>
+        <v>3.187884544653651</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.281029403857012</v>
+        <v>4.08935427156706</v>
       </c>
       <c r="AG27" t="n">
-        <v>2.083562387401409</v>
+        <v>6.776574927670359</v>
       </c>
       <c r="AH27" t="n">
-        <v>7.876487308721859</v>
+        <v>6.176997780464546</v>
       </c>
       <c r="AI27" t="n">
-        <v>5.296841245828086</v>
+        <v>5.471010235692777</v>
       </c>
       <c r="AJ27" t="n">
-        <v>6.561030292712183</v>
+        <v>4.310027699887002</v>
       </c>
       <c r="AK27" t="n">
-        <v>3.164311486508327</v>
+        <v>8.360012797791388</v>
       </c>
       <c r="AL27" t="n">
-        <v>2.143615413273095</v>
+        <v>7.396066727422355</v>
       </c>
       <c r="AM27" t="n">
-        <v>6.541069906622352</v>
+        <v>2.00935979224448</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.153803336518782</v>
+        <v>3.527723603149518</v>
       </c>
       <c r="AO27" t="n">
-        <v>3.294019839834812</v>
+        <v>4.585631169373658</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.005196708494506</v>
+        <v>4.949617216282553</v>
       </c>
       <c r="AQ27" t="n">
-        <v>4.285686122646694</v>
+        <v>5.109887251225438</v>
       </c>
       <c r="AR27" t="n">
-        <v>3.67215279807055</v>
+        <v>1.713266324472968</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.245336672884077</v>
+        <v>1.289458127709785</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.439749945509277</v>
+        <v>4.786563320855733</v>
       </c>
       <c r="AU27" t="n">
-        <v>8.252049714758378</v>
+        <v>5.824311572737963</v>
       </c>
       <c r="AV27" t="n">
-        <v>3.581939930382477</v>
+        <v>2.176663337569863</v>
       </c>
       <c r="AW27" t="n">
-        <v>5.809682038952838</v>
+        <v>4.089761923445154</v>
       </c>
       <c r="AX27" t="n">
-        <v>2.622543299990604</v>
+        <v>2.331322997833899</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>13.57246820919855</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>19.15919737470815</v>
+        <v>2.258382515778655</v>
       </c>
       <c r="E28" t="n">
-        <v>5.953103392028826</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>21.6301819309255</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>99.26332850230072</v>
       </c>
       <c r="H28" t="n">
-        <v>16.08773560168269</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>8.747739480929987</v>
+        <v>77.38012692608739</v>
       </c>
       <c r="J28" t="n">
-        <v>110.0588267051202</v>
+        <v>5.147918239346363</v>
       </c>
       <c r="K28" t="n">
-        <v>143.7155810603985</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>68.97375087800734</v>
+        <v>14.90637027855335</v>
       </c>
       <c r="N28" t="n">
-        <v>20.7228588563471</v>
+        <v>38.19593377987776</v>
       </c>
       <c r="O28" t="n">
-        <v>119.0391197199867</v>
+        <v>117.6738292899005</v>
       </c>
       <c r="P28" t="n">
-        <v>25.10934663402272</v>
+        <v>36.91381428077703</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.92528916587815</v>
+        <v>7.689218085552692</v>
       </c>
       <c r="R28" t="n">
-        <v>111.6481856802479</v>
+        <v>81.84220160852385</v>
       </c>
       <c r="S28" t="n">
-        <v>54.7220484934346</v>
+        <v>35.21355753783894</v>
       </c>
       <c r="T28" t="n">
-        <v>27.33480994645805</v>
+        <v>126.3680914775028</v>
       </c>
       <c r="U28" t="n">
-        <v>31.3497111432488</v>
+        <v>81.70127574338602</v>
       </c>
       <c r="V28" t="n">
-        <v>47.2552586504327</v>
+        <v>97.28698817183499</v>
       </c>
       <c r="W28" t="n">
-        <v>54.42750840493866</v>
+        <v>34.84220044476551</v>
       </c>
       <c r="X28" t="n">
-        <v>53.34428554956418</v>
+        <v>52.02204571636774</v>
       </c>
       <c r="Y28" t="n">
-        <v>190.8627472283612</v>
+        <v>22.4076135343827</v>
       </c>
       <c r="Z28" t="n">
-        <v>48.70781399019845</v>
+        <v>55.67549992272769</v>
       </c>
       <c r="AA28" t="n">
-        <v>76.3410816775111</v>
+        <v>46.9701516045797</v>
       </c>
       <c r="AB28" t="n">
-        <v>82.51436415110659</v>
+        <v>114.037660046705</v>
       </c>
       <c r="AC28" t="n">
-        <v>55.89628068959184</v>
+        <v>61.81191671729671</v>
       </c>
       <c r="AD28" t="n">
-        <v>83.70417805291737</v>
+        <v>78.55107388532936</v>
       </c>
       <c r="AE28" t="n">
-        <v>106.9944351827411</v>
+        <v>42.86192365681339</v>
       </c>
       <c r="AF28" t="n">
-        <v>88.52097450915623</v>
+        <v>77.23721614986859</v>
       </c>
       <c r="AG28" t="n">
-        <v>119.7805953020051</v>
+        <v>26.44265832669609</v>
       </c>
       <c r="AH28" t="n">
-        <v>92.45822916660707</v>
+        <v>6.815420732477948</v>
       </c>
       <c r="AI28" t="n">
-        <v>44.50869581387511</v>
+        <v>49.36636697771315</v>
       </c>
       <c r="AJ28" t="n">
-        <v>122.1437570557828</v>
+        <v>43.81226738650863</v>
       </c>
       <c r="AK28" t="n">
-        <v>48.61295827542452</v>
+        <v>41.87981422752777</v>
       </c>
       <c r="AL28" t="n">
-        <v>44.6363276783962</v>
+        <v>25.48151949435552</v>
       </c>
       <c r="AM28" t="n">
-        <v>34.30206743073781</v>
+        <v>26.21822964813348</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.623654597017848</v>
+        <v>15.46261056926651</v>
       </c>
       <c r="AO28" t="n">
-        <v>15.43452251620951</v>
+        <v>21.14183066455805</v>
       </c>
       <c r="AP28" t="n">
-        <v>11.51550296423931</v>
+        <v>12.3382845729918</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16.45990360936527</v>
+        <v>11.27295102409897</v>
       </c>
       <c r="AR28" t="n">
-        <v>10.7005790615936</v>
+        <v>23.88053290499914</v>
       </c>
       <c r="AS28" t="n">
-        <v>14.24067798766134</v>
+        <v>8.113136558734766</v>
       </c>
       <c r="AT28" t="n">
-        <v>13.83283393064212</v>
+        <v>33.81333855437156</v>
       </c>
       <c r="AU28" t="n">
-        <v>10.61525799018653</v>
+        <v>21.41025635591233</v>
       </c>
       <c r="AV28" t="n">
-        <v>16.31154655913556</v>
+        <v>9.973338983139858</v>
       </c>
       <c r="AW28" t="n">
-        <v>7.072100967487379</v>
+        <v>10.35140701037217</v>
       </c>
       <c r="AX28" t="n">
-        <v>9.134960660851835</v>
+        <v>11.82189195245813</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>191.2054165161602</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>73.183709784154</v>
       </c>
       <c r="E29" t="n">
-        <v>17.76408576187634</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.267477064546705</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>127.9850513565645</v>
       </c>
       <c r="H29" t="n">
-        <v>21.11239087452005</v>
+        <v>45.08363400073223</v>
       </c>
       <c r="I29" t="n">
-        <v>67.87747922778829</v>
+        <v>21.96292531216088</v>
       </c>
       <c r="J29" t="n">
-        <v>9.062020751720393</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>55.26963162119621</v>
+        <v>26.2501176965364</v>
       </c>
       <c r="L29" t="n">
-        <v>33.45372650477896</v>
+        <v>321.8668193695043</v>
       </c>
       <c r="M29" t="n">
-        <v>27.29208897228498</v>
+        <v>53.2152079825472</v>
       </c>
       <c r="N29" t="n">
-        <v>35.31537109238201</v>
+        <v>5.679987340749303</v>
       </c>
       <c r="O29" t="n">
-        <v>4.227757232277431</v>
+        <v>12.39327745000081</v>
       </c>
       <c r="P29" t="n">
-        <v>40.66773281686398</v>
+        <v>47.026217347436</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.336522098125254</v>
+        <v>91.86234858612832</v>
       </c>
       <c r="R29" t="n">
-        <v>62.90215206880109</v>
+        <v>79.11056186897292</v>
       </c>
       <c r="S29" t="n">
-        <v>18.17196521833026</v>
+        <v>69.60697849654282</v>
       </c>
       <c r="T29" t="n">
-        <v>97.94881887435622</v>
+        <v>20.10589337814179</v>
       </c>
       <c r="U29" t="n">
-        <v>161.0009401982915</v>
+        <v>7.824572950143152</v>
       </c>
       <c r="V29" t="n">
-        <v>16.7255815099857</v>
+        <v>45.43956169198237</v>
       </c>
       <c r="W29" t="n">
-        <v>37.40608931698676</v>
+        <v>56.90517381259741</v>
       </c>
       <c r="X29" t="n">
-        <v>76.08987291948048</v>
+        <v>21.79797227337672</v>
       </c>
       <c r="Y29" t="n">
-        <v>45.66153198778785</v>
+        <v>105.040649589944</v>
       </c>
       <c r="Z29" t="n">
-        <v>25.07515515817864</v>
+        <v>51.82865899426061</v>
       </c>
       <c r="AA29" t="n">
-        <v>37.07046232771751</v>
+        <v>61.39356057341971</v>
       </c>
       <c r="AB29" t="n">
-        <v>73.54479776836331</v>
+        <v>14.27769049366304</v>
       </c>
       <c r="AC29" t="n">
-        <v>67.16429622931338</v>
+        <v>46.31129801586981</v>
       </c>
       <c r="AD29" t="n">
-        <v>30.92263652563119</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>8.560238056530789</v>
       </c>
       <c r="AF29" t="n">
-        <v>51.64535856608737</v>
+        <v>36.94965601536723</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>43.12557964319208</v>
       </c>
       <c r="AH29" t="n">
-        <v>54.20801230042296</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>38.52080446578058</v>
+        <v>11.49716445290737</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.6961462332319819</v>
+        <v>64.22886943713213</v>
       </c>
       <c r="AK29" t="n">
-        <v>17.56256376882241</v>
+        <v>19.10040238022493</v>
       </c>
       <c r="AL29" t="n">
-        <v>25.6429786062366</v>
+        <v>22.44047512553237</v>
       </c>
       <c r="AM29" t="n">
-        <v>21.76173926312891</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>27.96756100951676</v>
+        <v>37.42463488051028</v>
       </c>
       <c r="AO29" t="n">
-        <v>23.87112884673825</v>
+        <v>18.85516010992399</v>
       </c>
       <c r="AP29" t="n">
-        <v>8.908338739958277</v>
+        <v>6.249838360234861</v>
       </c>
       <c r="AQ29" t="n">
-        <v>17.80883497564503</v>
+        <v>6.88343225316134</v>
       </c>
       <c r="AR29" t="n">
-        <v>19.08666547005479</v>
+        <v>13.24214516258775</v>
       </c>
       <c r="AS29" t="n">
-        <v>35.39361037291055</v>
+        <v>36.81996826486109</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.6647496736161734</v>
+        <v>14.89128580811016</v>
       </c>
       <c r="AU29" t="n">
-        <v>21.85080533270389</v>
+        <v>23.76973124135985</v>
       </c>
       <c r="AV29" t="n">
-        <v>23.67444074739642</v>
+        <v>21.43750012518101</v>
       </c>
       <c r="AW29" t="n">
-        <v>10.99276229382942</v>
+        <v>40.04240890514144</v>
       </c>
       <c r="AX29" t="n">
-        <v>28.24060803732235</v>
+        <v>28.62309691360783</v>
       </c>
     </row>
     <row r="30">
@@ -4952,145 +4952,145 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>7.746792457797591</v>
+        <v>17.8318460111993</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9924119647852889</v>
+        <v>26.17764125637</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>4.776737340646447</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>20.13261329620453</v>
       </c>
       <c r="H30" t="n">
-        <v>4.903037937410962</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>14.29556340965532</v>
+        <v>0.5929600410515086</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1308810973833097</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>9.178543389817685</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>20.12578126252644</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>15.42299451391192</v>
+        <v>14.43958732411529</v>
       </c>
       <c r="N30" t="n">
-        <v>26.8935604836663</v>
+        <v>22.8298981440493</v>
       </c>
       <c r="O30" t="n">
-        <v>19.79412900289321</v>
+        <v>21.24148768835266</v>
       </c>
       <c r="P30" t="n">
-        <v>14.820915677492</v>
+        <v>35.8614894160312</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.444421407754153</v>
+        <v>11.67212948620601</v>
       </c>
       <c r="R30" t="n">
-        <v>11.86280153964991</v>
+        <v>50.02945566821109</v>
       </c>
       <c r="S30" t="n">
-        <v>50.33229620981848</v>
+        <v>34.41171663639818</v>
       </c>
       <c r="T30" t="n">
-        <v>38.17139648203008</v>
+        <v>30.42565134167281</v>
       </c>
       <c r="U30" t="n">
-        <v>24.24504989136133</v>
+        <v>25.21186515742349</v>
       </c>
       <c r="V30" t="n">
-        <v>14.07792746153731</v>
+        <v>14.63819437413254</v>
       </c>
       <c r="W30" t="n">
-        <v>35.16307778002289</v>
+        <v>6.078507384857875</v>
       </c>
       <c r="X30" t="n">
-        <v>17.47239346051261</v>
+        <v>6.715861339468983</v>
       </c>
       <c r="Y30" t="n">
-        <v>25.37728672937696</v>
+        <v>33.61973529876462</v>
       </c>
       <c r="Z30" t="n">
-        <v>23.66730396602994</v>
+        <v>18.19281737616241</v>
       </c>
       <c r="AA30" t="n">
-        <v>15.17090974256955</v>
+        <v>7.732768043137942</v>
       </c>
       <c r="AB30" t="n">
-        <v>19.03595351452235</v>
+        <v>8.255391389860106</v>
       </c>
       <c r="AC30" t="n">
-        <v>20.71871140132713</v>
+        <v>11.85364234136886</v>
       </c>
       <c r="AD30" t="n">
-        <v>20.70778029193067</v>
+        <v>13.91972218730965</v>
       </c>
       <c r="AE30" t="n">
-        <v>17.3408141371945</v>
+        <v>13.59151419481505</v>
       </c>
       <c r="AF30" t="n">
-        <v>30.86826849403541</v>
+        <v>17.45690972765708</v>
       </c>
       <c r="AG30" t="n">
-        <v>21.72904804472972</v>
+        <v>17.30353756055573</v>
       </c>
       <c r="AH30" t="n">
-        <v>28.58665045000778</v>
+        <v>24.49169643081666</v>
       </c>
       <c r="AI30" t="n">
-        <v>23.70694614632094</v>
+        <v>7.461594873924136</v>
       </c>
       <c r="AJ30" t="n">
-        <v>4.067880670525049</v>
+        <v>18.88040686415165</v>
       </c>
       <c r="AK30" t="n">
-        <v>9.017268456226088</v>
+        <v>10.23218627684556</v>
       </c>
       <c r="AL30" t="n">
-        <v>1.79429462470495</v>
+        <v>1.977792748659803</v>
       </c>
       <c r="AM30" t="n">
-        <v>10.14210754828313</v>
+        <v>5.792527903939342</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.717587805969404</v>
+        <v>1.210268639524431</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.09338203864676486</v>
+        <v>3.161987385947866</v>
       </c>
       <c r="AP30" t="n">
-        <v>3.978754019786786</v>
+        <v>6.63131465676354</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.884778940712811</v>
+        <v>5.372977461988902</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.897886382321092</v>
+        <v>2.264152632820233</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.1986159705190038</v>
+        <v>5.810792503352658</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.123431009647648</v>
+        <v>7.961945742613628</v>
       </c>
       <c r="AU30" t="n">
-        <v>5.117919246679618</v>
+        <v>0.2235361884133198</v>
       </c>
       <c r="AV30" t="n">
-        <v>12.29306786842492</v>
+        <v>1.147349115995438</v>
       </c>
       <c r="AW30" t="n">
-        <v>0.1722907692836081</v>
+        <v>2.089137895314987</v>
       </c>
       <c r="AX30" t="n">
-        <v>5.131228370532014</v>
+        <v>4.286360213502626</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>11.94690906047074</v>
       </c>
       <c r="D31" t="n">
-        <v>8.514097158195293</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>30.05593309833609</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>32.43978683140767</v>
       </c>
       <c r="G31" t="n">
-        <v>24.79975680397749</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>4.706381636812852</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>16.43990426331894</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>6.092490394275556</v>
       </c>
       <c r="K31" t="n">
-        <v>69.1726351187166</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>34.99262997941767</v>
+        <v>56.58289965225539</v>
       </c>
       <c r="M31" t="n">
-        <v>10.77545838798895</v>
+        <v>19.22220353303003</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>9.015840944932606</v>
       </c>
       <c r="O31" t="n">
-        <v>79.7920767865981</v>
+        <v>10.11628344231955</v>
       </c>
       <c r="P31" t="n">
-        <v>100.5851175353481</v>
+        <v>22.01213282573923</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.47608182200656</v>
+        <v>30.91946961811778</v>
       </c>
       <c r="R31" t="n">
-        <v>45.28523250801886</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>28.55172253048693</v>
+        <v>105.9045988935034</v>
       </c>
       <c r="T31" t="n">
-        <v>19.73902927449379</v>
+        <v>19.79564879922007</v>
       </c>
       <c r="U31" t="n">
-        <v>25.43338551485748</v>
+        <v>92.71970313139423</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4451298909536963</v>
+        <v>21.1259636182848</v>
       </c>
       <c r="W31" t="n">
-        <v>37.52120171700638</v>
+        <v>27.41206714904767</v>
       </c>
       <c r="X31" t="n">
-        <v>18.41663290038821</v>
+        <v>9.245314289920566</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.416261373483319</v>
+        <v>38.50439832223591</v>
       </c>
       <c r="Z31" t="n">
-        <v>44.5264051197889</v>
+        <v>20.63170304890999</v>
       </c>
       <c r="AA31" t="n">
-        <v>36.99952096286567</v>
+        <v>32.20813922180744</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.913410981039076</v>
+        <v>11.40779211548928</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.7172193140060958</v>
+        <v>6.143559253782719</v>
       </c>
       <c r="AD31" t="n">
-        <v>29.24884380964928</v>
+        <v>5.618155897478421</v>
       </c>
       <c r="AE31" t="n">
-        <v>13.60832929344693</v>
+        <v>5.455523921825749</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.620494883303824</v>
+        <v>10.77975785294656</v>
       </c>
       <c r="AG31" t="n">
-        <v>16.95793757196954</v>
+        <v>13.86502641103116</v>
       </c>
       <c r="AH31" t="n">
-        <v>30.85343000061699</v>
+        <v>7.527974631757796</v>
       </c>
       <c r="AI31" t="n">
-        <v>2.611466665032868</v>
+        <v>21.91767000390967</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3.299614393080349</v>
+        <v>2.332538109266823</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>9.373145338054183</v>
       </c>
       <c r="AL31" t="n">
-        <v>2.255322099874249</v>
+        <v>10.80357654012342</v>
       </c>
       <c r="AM31" t="n">
-        <v>1.858429738484</v>
+        <v>0</v>
       </c>
       <c r="AN31" t="n">
-        <v>18.44933677644994</v>
+        <v>13.85926356127466</v>
       </c>
       <c r="AO31" t="n">
-        <v>6.036758490577601</v>
+        <v>1.117492943795989</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.456220465314063</v>
+        <v>5.675616146580122</v>
       </c>
       <c r="AQ31" t="n">
-        <v>5.097236175214007</v>
+        <v>7.795213684990001</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>8.957477643296791</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.925233618188551</v>
+        <v>1.982470511599006</v>
       </c>
       <c r="AT31" t="n">
-        <v>0</v>
+        <v>2.749242111529805</v>
       </c>
       <c r="AU31" t="n">
-        <v>12.0992408558044</v>
+        <v>2.898247764837274</v>
       </c>
       <c r="AV31" t="n">
-        <v>13.7557166120569</v>
+        <v>23.33802167687405</v>
       </c>
       <c r="AW31" t="n">
-        <v>2.844100354383778</v>
+        <v>6.098104292450522</v>
       </c>
       <c r="AX31" t="n">
-        <v>60.52982951647985</v>
+        <v>6.590052581416619</v>
       </c>
     </row>
   </sheetData>
